--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P13_trail14 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P13_trail14 Features.xlsx
@@ -8038,7 +8038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8049,29 +8049,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="21" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8092,115 +8090,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -8217,72 +8205,66 @@
         <v>9.056988537446505e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.7424763812367284</v>
+        <v>5.58445771791425e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1.791886975389398</v>
+        <v>1.27895530301569e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>5.58445771791425e-07</v>
+        <v>-0.1028781095884884</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.27895530301569e-06</v>
+        <v>0.2736712884615016</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1028781095884884</v>
+        <v>0.0852470442296301</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2736712884615016</v>
+        <v>1.914112418602775</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.0852470442296301</v>
+        <v>2.537306264760631</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.925381278876437</v>
+        <v>4.391004098976268</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.537306264760631</v>
+        <v>1.938107526238429e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.391004098976268</v>
+        <v>3776236374.666544</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.938107526238429e-17</v>
+        <v>3.204662546739103e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>3776236374.666544</v>
+        <v>276.3733804293684</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.204662546739103e-08</v>
+        <v>0.0001493488169809469</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>276.3733804293684</v>
+        <v>11.55191503828071</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001493488169809469</v>
+        <v>1.229950647646153</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>11.55191503828071</v>
+        <v>0.01993011290602757</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.229950647646153</v>
+        <v>3.855419034521455</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01993011290602757</v>
+        <v>0.9589468686783162</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.855419034521455</v>
+        <v>1.245843961254685</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9589468686783162</v>
+        <v>126</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.245843961254685</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>126</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>2.230143709238767</v>
       </c>
     </row>
@@ -8297,72 +8279,66 @@
         <v>8.169701852738151e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.03891781771373655</v>
+        <v>4.159884207905092e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.5273076129629271</v>
+        <v>1.27090723650078e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>4.159884207905092e-07</v>
+        <v>-0.08495380669805117</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.27090723650078e-06</v>
+        <v>0.2082699117890857</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.08495380669805117</v>
+        <v>0.05044924691941503</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2082699117890857</v>
+        <v>1.909570061422163</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.05044924691941503</v>
+        <v>2.395735624129773</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.925247544672862</v>
+        <v>4.180284400176909</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.395735624129773</v>
+        <v>2.138424365594895e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.180284400176909</v>
+        <v>3268626569.010569</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.138424365594895e-17</v>
+        <v>3.677399326110226e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>3268626569.010569</v>
+        <v>228.4675409457525</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.677399326110226e-08</v>
+        <v>0.0001839548218176354</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>228.4675409457525</v>
+        <v>9.666351128091533</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001839548218176354</v>
+        <v>1.735389721895448</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.666351128091533</v>
+        <v>0.01718843394565536</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.735389721895448</v>
+        <v>3.594479389596828</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01718843394565536</v>
+        <v>0.9574889443827217</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.594479389596828</v>
+        <v>1.280738188619956</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9574889443827217</v>
+        <v>124</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.280738188619956</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>124</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>1.447297923509885</v>
       </c>
     </row>
@@ -8377,72 +8353,66 @@
         <v>7.886926888456251e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.1971609853066774</v>
+        <v>3.19508249116109e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.070166745154546</v>
+        <v>1.264834067778215e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3.19508249116109e-07</v>
+        <v>-0.06758114650318073</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.264834067778215e-06</v>
+        <v>0.1480468093201077</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.06758114650318073</v>
+        <v>0.02641540317459821</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1480468093201077</v>
+        <v>1.915873284822893</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.02641540317459821</v>
+        <v>2.258487327626991</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.93201865675352</v>
+        <v>4.374856798564307</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.258487327626991</v>
+        <v>1.952440776509911e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.374856798564307</v>
+        <v>3572754999.457556</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.952440776509911e-17</v>
+        <v>3.362129843298205e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>3572754999.457556</v>
+        <v>249.2208314083023</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.362129843298205e-08</v>
+        <v>0.0001398758538554539</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>249.2208314083023</v>
+        <v>8.991318757895764</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001398758538554539</v>
+        <v>1.362776956988534</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.991318757895764</v>
+        <v>0.01130809737315724</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.362776956988534</v>
+        <v>3.432611564116211</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01130809737315724</v>
+        <v>0.9599875748496745</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.432611564116211</v>
+        <v>1.295835932280369</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9599875748496745</v>
+        <v>142</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.295835932280369</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>142</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.9810822559683188</v>
       </c>
     </row>
@@ -8457,72 +8427,66 @@
         <v>7.896725565565858e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.2196680034430858</v>
+        <v>2.635328648801535e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.126412002388645</v>
+        <v>1.260064049265524e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.635328648801535e-07</v>
+        <v>-0.05443005050278473</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.260064049265524e-06</v>
+        <v>0.1071099289838522</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.05443005050278473</v>
+        <v>0.01440619549271878</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1071099289838522</v>
+        <v>1.913076580992399</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01440619549271878</v>
+        <v>2.414420979291827</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.930261392591331</v>
+        <v>4.711847472593876</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.414420979291827</v>
+        <v>1.683151103660017e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.711847472593876</v>
+        <v>4139954653.601201</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.683151103660017e-17</v>
+        <v>2.903273864777917e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>4139954653.601201</v>
+        <v>288.4790469006726</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.903273864777917e-08</v>
+        <v>0.0001338489194583951</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>288.4790469006726</v>
+        <v>9.56304153424021</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001338489194583951</v>
+        <v>1.164082849792846</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.56304153424021</v>
+        <v>0.01224071971172782</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.164082849792846</v>
+        <v>3.156219684899155</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01224071971172782</v>
+        <v>0.9614256791503314</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.156219684899155</v>
+        <v>1.274545679056088</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9614256791503314</v>
+        <v>161</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.274545679056088</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>161</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.7469037966841073</v>
       </c>
     </row>
@@ -8537,72 +8501,66 @@
         <v>8.029709961189416e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.1893066588684678</v>
+        <v>2.68037207383801e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.137114686173716</v>
+        <v>1.256111991364905e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.68037207383801e-07</v>
+        <v>-0.04564530367952922</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.256111991364905e-06</v>
+        <v>0.08472979544016414</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.04564530367952922</v>
+        <v>0.009251762552062217</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.08472979544016414</v>
+        <v>1.911347537245445</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.009251762552062217</v>
+        <v>2.668771913921353</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.929388539433947</v>
+        <v>4.778640186109907</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.668771913921353</v>
+        <v>1.636427959480834e-17</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.778640186109907</v>
+        <v>4334553932.095537</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.636427959480834e-17</v>
+        <v>2.773575909988663e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>4334553932.095537</v>
+        <v>307.4579400068627</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.773575909988663e-08</v>
+        <v>0.0001322119544131814</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>307.4579400068627</v>
+        <v>9.467641733897928</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001322119544131814</v>
+        <v>1.170294059159948</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.467641733897928</v>
+        <v>0.01185098247684014</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.170294059159948</v>
+        <v>3.078193339937633</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01185098247684014</v>
+        <v>0.9615319698496601</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.078193339937633</v>
+        <v>1.253293162269501</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9615319698496601</v>
+        <v>158</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.253293162269501</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>158</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.659672984982862</v>
       </c>
     </row>
@@ -8617,72 +8575,66 @@
         <v>8.209691331630678e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.1549361342914217</v>
+        <v>2.722898748200088e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.160635118868439</v>
+        <v>1.252640030144485e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.722898748200088e-07</v>
+        <v>-0.04054456348661767</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.252640030144485e-06</v>
+        <v>0.07565048617118916</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.04054456348661767</v>
+        <v>0.007364504240254049</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.07565048617118916</v>
+        <v>1.910351518465681</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.007364504240254049</v>
+        <v>2.680286706340579</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.930076341263112</v>
+        <v>4.801118817205042</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.680286706340579</v>
+        <v>1.621140460997286e-17</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.801118817205042</v>
+        <v>4406352108.557427</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.621140460997286e-17</v>
+        <v>2.730140727259741e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>4406352108.557427</v>
+        <v>314.7596414647972</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.730140727259741e-08</v>
+        <v>0.0001290179517029593</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>314.7596414647972</v>
+        <v>8.531666884027379</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001290179517029593</v>
+        <v>1.239625202741991</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.531666884027379</v>
+        <v>0.009391131529388268</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.239625202741991</v>
+        <v>3.261299590373083</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.009391131529388268</v>
+        <v>0.9620668737411835</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.261299590373083</v>
+        <v>1.275129330452281</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9620668737411835</v>
+        <v>130</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.275129330452281</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>130</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.6445069976998385</v>
       </c>
     </row>
@@ -8697,72 +8649,66 @@
         <v>8.402344851783212e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.1231260058964525</v>
+        <v>2.762852511465303e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.189767937196242</v>
+        <v>1.249363546581683e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.762852511465303e-07</v>
+        <v>-0.03892831577327822</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.249363546581683e-06</v>
+        <v>0.07326993158246446</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.03892831577327822</v>
+        <v>0.006883947214804309</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.07326993158246446</v>
+        <v>1.919037402473355</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.006883947214804309</v>
+        <v>2.656599463905017</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.934077382916881</v>
+        <v>4.813734507794985</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.656599463905017</v>
+        <v>1.612654323389929e-17</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.813734507794985</v>
+        <v>4555346377.833778</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.612654323389929e-17</v>
+        <v>2.663089063033766e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>4555346377.833778</v>
+        <v>334.6448114558348</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.663089063033766e-08</v>
+        <v>0.0001478776283899045</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>334.6448114558348</v>
+        <v>8.015032733313731</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001478776283899045</v>
+        <v>1.651783678136968</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.015032733313731</v>
+        <v>0.009499769714004905</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.651783678136968</v>
+        <v>3.318501357431481</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.009499769714004905</v>
+        <v>0.9638984835766287</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.318501357431481</v>
+        <v>1.259638585751212</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9638984835766287</v>
+        <v>93</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.259638585751212</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>93</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.6418123727234665</v>
       </c>
     </row>
@@ -8777,72 +8723,66 @@
         <v>8.588249678046582e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.08952086078506856</v>
+        <v>2.799756810873412e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.214302803106347</v>
+        <v>1.246011217968995e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.799756810873412e-07</v>
+        <v>-0.04039361114305014</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.246011217968995e-06</v>
+        <v>0.06928930856191125</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.04039361114305014</v>
+        <v>0.0064309222138023</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.06928930856191125</v>
+        <v>1.91424727019834</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.0064309222138023</v>
+        <v>2.515423088744005</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.932407772865724</v>
+        <v>4.941675307420878</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.515423088744005</v>
+        <v>1.530231506878641e-17</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.941675307420878</v>
+        <v>4789143136.76254</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.530231506878641e-17</v>
+        <v>2.529580809537916e-08</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>4789143136.76254</v>
+        <v>350.9722455289376</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>2.529580809537916e-08</v>
+        <v>0.0001467067080414334</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>350.9722455289376</v>
+        <v>8.665185843199032</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001467067080414334</v>
+        <v>1.41862049174924</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.665185843199032</v>
+        <v>0.01101553856005663</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.41862049174924</v>
+        <v>3.265616734127148</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01101553856005663</v>
+        <v>0.9623120627714168</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.265616734127148</v>
+        <v>1.222867487676655</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9623120627714168</v>
+        <v>87</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.222867487676655</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>87</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.6726060707314225</v>
       </c>
     </row>
@@ -8857,72 +8797,66 @@
         <v>8.749594864192061e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.05125149073250867</v>
+        <v>2.833472595843489e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.225775165563318</v>
+        <v>1.242369080283274e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.833472595843489e-07</v>
+        <v>-0.04379527803371806</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.242369080283274e-06</v>
+        <v>0.05964401321353645</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.04379527803371806</v>
+        <v>0.005471602808375418</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.05964401321353645</v>
+        <v>1.916955095500524</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.005471602808375418</v>
+        <v>2.640913661239816</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.932204059659884</v>
+        <v>5.042242196084326</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.640913661239816</v>
+        <v>1.46979967870521e-17</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>5.042242196084326</v>
+        <v>4931450323.852451</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.46979967870521e-17</v>
+        <v>2.455447602117355e-08</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>4931450323.852451</v>
+        <v>357.4435572194562</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>2.455447602117355e-08</v>
+        <v>0.0001348509170256904</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>357.4435572194562</v>
+        <v>9.637798641693461</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001348509170256904</v>
+        <v>1.155514469460966</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.637798641693461</v>
+        <v>0.01252591906432262</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.155514469460966</v>
+        <v>3.094206558703905</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01252591906432262</v>
+        <v>0.961716110286077</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.094206558703905</v>
+        <v>1.262407603912201</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.961716110286077</v>
+        <v>58</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.262407603912201</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.6633414507839789</v>
       </c>
     </row>
@@ -8937,72 +8871,66 @@
         <v>8.868139608795161e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.01143249507954291</v>
+        <v>2.865618584136816e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.220775773452932</v>
+        <v>1.238326710083575e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2.865618584136816e-07</v>
+        <v>-0.04783830769977365</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.238326710083575e-06</v>
+        <v>0.04571631479255155</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.04783830769977365</v>
+        <v>0.004375610794551218</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.04571631479255155</v>
+        <v>1.921525791270872</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.004375610794551218</v>
+        <v>2.477344346713471</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.936946992531223</v>
+        <v>5.055786612031438</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.477344346713471</v>
+        <v>1.461935061938896e-17</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>5.055786612031438</v>
+        <v>4678081523.848028</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.461935061938896e-17</v>
+        <v>2.583286846126129e-08</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>4678081523.848028</v>
+        <v>319.9364000584937</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>2.583286846126129e-08</v>
+        <v>0.0001288539648154819</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>319.9364000584937</v>
+        <v>8.953591745343504</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001288539648154819</v>
+        <v>1.187668421386914</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.953591745343504</v>
+        <v>0.01032981068917337</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.187668421386914</v>
+        <v>3.145402624544446</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01032981068917337</v>
+        <v>0.9602848148068569</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.145402624544446</v>
+        <v>1.287432779557095</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9602848148068569</v>
+        <v>44</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.287432779557095</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.61217374655945</v>
       </c>
     </row>
@@ -9017,72 +8945,66 @@
         <v>8.936153719685351e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.02386688286869921</v>
+        <v>2.897060302344992e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.206136881402169</v>
+        <v>1.233914891526372e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2.897060302344992e-07</v>
+        <v>-0.05104975296954903</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.233914891526372e-06</v>
+        <v>0.03440938146336315</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.05104975296954903</v>
+        <v>0.003788865270427909</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.03440938146336315</v>
+        <v>1.918835951245891</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.003788865270427909</v>
+        <v>2.288247647013161</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.934365592961317</v>
+        <v>5.031410560039207</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.288247647013161</v>
+        <v>1.476134869070586e-17</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>5.031410560039207</v>
+        <v>4533951654.419959</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.476134869070586e-17</v>
+        <v>2.65999406703084e-08</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>4533951654.419959</v>
+        <v>303.4448764981303</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.65999406703084e-08</v>
+        <v>0.0001245082552462075</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>303.4448764981303</v>
+        <v>7.901394779953426</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001245082552462075</v>
+        <v>1.290582082840671</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>7.901394779953426</v>
+        <v>0.007773304305707117</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.290582082840671</v>
+        <v>3.318131487814632</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.007773304305707117</v>
+        <v>0.9604807684889244</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.318131487814632</v>
+        <v>1.264309439210955</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9604807684889244</v>
+        <v>65</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.264309439210955</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.6545695054827013</v>
       </c>
     </row>
@@ -9097,72 +9019,66 @@
         <v>8.957225965852957e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.05083617341944312</v>
+        <v>2.929195006110834e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.192134679763869</v>
+        <v>1.229224887833708e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2.929195006110834e-07</v>
+        <v>-0.05359877276285489</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.229224887833708e-06</v>
+        <v>0.02565607267671399</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05359877276285489</v>
+        <v>0.003530836803800216</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.02565607267671399</v>
+        <v>1.923843281684172</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.003530836803800216</v>
+        <v>2.341042680302322</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.935501837505428</v>
+        <v>5.06500754802909</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.341042680302322</v>
+        <v>1.456616949833896e-17</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>5.06500754802909</v>
+        <v>4437079119.823222</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.456616949833896e-17</v>
+        <v>2.713282381759511e-08</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>4437079119.823222</v>
+        <v>286.7739544969625</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.713282381759511e-08</v>
+        <v>0.0001270385301186411</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>286.7739544969625</v>
+        <v>7.554197510373061</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001270385301186411</v>
+        <v>1.464103334026922</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>7.554197510373061</v>
+        <v>0.007249568059165626</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.464103334026922</v>
+        <v>3.462679544216268</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.007249568059165626</v>
+        <v>0.9589773668152493</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.462679544216268</v>
+        <v>1.281121601162896</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9589773668152493</v>
+        <v>97</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.281121601162896</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>97</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.8342509075873021</v>
       </c>
     </row>
@@ -9177,72 +9093,66 @@
         <v>8.940344271390596e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.06888639219220154</v>
+        <v>2.961292690199148e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.185602599859279</v>
+        <v>1.224349511841649e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.961292690199148e-07</v>
+        <v>-0.05514192643363894</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.224349511841649e-06</v>
+        <v>0.02179318584317106</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.05514192643363894</v>
+        <v>0.003515870543844767</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.02179318584317106</v>
+        <v>1.925250537204739</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.003515870543844767</v>
+        <v>2.254367425112597</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.934680104519718</v>
+        <v>5.303945283183941</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.254367425112597</v>
+        <v>1.328334592888271e-17</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>5.303945283183941</v>
+        <v>4810826987.012324</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.328334592888271e-17</v>
+        <v>2.505913847840004e-08</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>4810826987.012324</v>
+        <v>307.4305060167032</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.505913847840004e-08</v>
+        <v>0.0001357747262977332</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>307.4305060167032</v>
+        <v>8.76207292293779</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001357747262977332</v>
+        <v>1.366976614127825</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.76207292293779</v>
+        <v>0.01042395823371012</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.366976614127825</v>
+        <v>3.574463343238512</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01042395823371012</v>
+        <v>0.9602969523470297</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.574463343238512</v>
+        <v>1.303382464096752</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9602969523470297</v>
+        <v>116</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.303382464096752</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>116</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>1.284227352608302</v>
       </c>
     </row>
@@ -9257,72 +9167,66 @@
         <v>8.899252795201313e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.08087633913110484</v>
+        <v>2.988707514499201e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.186891190736787</v>
+        <v>1.219389896651963e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2.988707514499201e-07</v>
+        <v>-0.05596875133487818</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.219389896651963e-06</v>
+        <v>0.0208445104630901</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.05596875133487818</v>
+        <v>0.003567317624177527</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.0208445104630901</v>
+        <v>1.931409961437951</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.003567317624177527</v>
+        <v>2.169665006632288</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.938239861152716</v>
+        <v>6.053680780347905</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.169665006632288</v>
+        <v>1.019686150324597e-17</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>6.053680780347905</v>
+        <v>6376482237.777357</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.019686150324597e-17</v>
+        <v>1.891392339723514e-08</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>6376482237.777357</v>
+        <v>414.5995526431195</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.891392339723514e-08</v>
+        <v>0.000148088655029924</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>414.5995526431195</v>
+        <v>12.14595277162222</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.000148088655029924</v>
+        <v>1.034407066899598</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>12.14595277162222</v>
+        <v>0.02184665573170399</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.034407066899598</v>
+        <v>3.553428835672829</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.02184665573170399</v>
+        <v>0.9606893445763633</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.553428835672829</v>
+        <v>1.266229856579011</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9606893445763633</v>
+        <v>120</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.266229856579011</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>2.24092488108093</v>
       </c>
     </row>
@@ -9337,72 +9241,66 @@
         <v>8.841011428309085e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.08862394693527059</v>
+        <v>3.000680516313588e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.195510629506451</v>
+        <v>1.214397415654327e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>3.000680516313588e-07</v>
+        <v>-0.0565635604701112</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.214397415654327e-06</v>
+        <v>0.02065136992809266</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.0565635604701112</v>
+        <v>0.003626235394582425</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.02065136992809266</v>
+        <v>1.930712359261339</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.003626235394582425</v>
+        <v>2.52254518007769</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.945847516691884</v>
+        <v>5.018828572169411</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.52254518007769</v>
+        <v>8.163671828097392e-18</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>5.018828572169411</v>
+        <v>8306228983.040915</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>8.163671828097392e-18</v>
+        <v>1.455919865418383e-08</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>8306228983.040915</v>
+        <v>563.239801787894</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.455919865418383e-08</v>
+        <v>0.0001621811187832283</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>563.239801787894</v>
+        <v>11.44916407513956</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001621811187832283</v>
+        <v>1.220983713588094</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>11.44916407513956</v>
+        <v>0.0212592456574595</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.220983713588094</v>
+        <v>3.852664783637778</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.0212592456574595</v>
+        <v>0.9604522169516384</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.852664783637778</v>
+        <v>1.213952900448166</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9604522169516384</v>
+        <v>126</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.213952900448166</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>126</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>2.640264697897897</v>
       </c>
     </row>
@@ -9417,72 +9315,66 @@
         <v>8.766788394025329e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.09204569262551601</v>
+        <v>3.010609740805209e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.21336626380436</v>
+        <v>1.209387736523266e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3.010609740805209e-07</v>
+        <v>-0.05723114076279985</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.209387736523266e-06</v>
+        <v>0.02053395854745593</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.05723114076279985</v>
+        <v>0.003697380330535178</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.02053395854745593</v>
+        <v>1.943065469531862</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.003697380330535178</v>
+        <v>2.402264422855624</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.963463306531875</v>
+        <v>5.700961018992958</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.402264422855624</v>
+        <v>5.718520948549839e-18</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>5.700961018992958</v>
+        <v>12113910824.63628</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>5.718520948549839e-18</v>
+        <v>1.000767421025245e-08</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>12113910824.63628</v>
+        <v>839.1748527528086</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.000767421025245e-08</v>
+        <v>0.0001667806364543558</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>839.1748527528086</v>
+        <v>9.510172225516952</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001667806364543558</v>
+        <v>1.716242437211099</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.510172225516952</v>
+        <v>0.01508420377216548</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.716242437211099</v>
+        <v>4.210965300254785</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01508420377216548</v>
+        <v>0.9602197293790882</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>4.210965300254785</v>
+        <v>1.053105383524339</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9602197293790882</v>
+        <v>121</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.053105383524339</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>121</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>3.152789576006301</v>
       </c>
     </row>
@@ -9497,72 +9389,66 @@
         <v>8.677517114192195e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.09101136991525555</v>
+        <v>2.996314532573448e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.242714009964897</v>
+        <v>1.204376064733207e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>2.996314532573448e-07</v>
+        <v>-0.05754804425939391</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1.204376064733207e-06</v>
+        <v>0.0209519933835531</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.05754804425939391</v>
+        <v>0.003750848246007838</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.0209519933835531</v>
+        <v>1.949492565987964</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.003750848246007838</v>
+        <v>2.937048540880995</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.966050142460032</v>
+        <v>5.640120573006134</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.937048540880995</v>
+        <v>2.442459917645616e-18</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>5.640120573006134</v>
+        <v>28934483268.0066</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>2.442459917645616e-18</v>
+        <v>4.20497557126739e-09</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>28934483268.0066</v>
+        <v>2044.837999331833</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>4.20497557126739e-09</v>
+        <v>0.0001313984427966827</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>2044.837999331833</v>
+        <v>9.023110202123695</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001313984427966827</v>
+        <v>1.682519990132096</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>9.023110202123695</v>
+        <v>0.010698003646293</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.682519990132096</v>
+        <v>4.630203431719236</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.010698003646293</v>
+        <v>0.9607485991198362</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>4.630203431719236</v>
+        <v>0.9631575174235448</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9607485991198362</v>
+        <v>121</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.9631575174235448</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>121</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>4.074776057266366</v>
       </c>
     </row>
@@ -9577,72 +9463,66 @@
         <v>8.582618901972454e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.08946384393412136</v>
+        <v>2.94632736409769e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.277703554871993</v>
+        <v>1.199420461804166e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>2.94632736409769e-07</v>
+        <v>-0.05721526698987388</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1.199420461804166e-06</v>
+        <v>0.02130127538173495</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.05721526698987388</v>
+        <v>0.003727137630607633</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.02130127538173495</v>
+        <v>1.941239487677366</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.003727137630607633</v>
+        <v>3.244124889415758</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.959145014026162</v>
+        <v>6.00410190932471</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>3.244124889415758</v>
+        <v>1.949426663292654e-18</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>6.00410190932471</v>
+        <v>36951553435.07491</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.949426663292654e-18</v>
+        <v>3.296119045407768e-09</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>36951553435.07491</v>
+        <v>2661.780893607473</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>3.296119045407768e-09</v>
+        <v>0.0001040937126404138</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>2661.780893607473</v>
+        <v>10.74516301845657</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001040937126404138</v>
+        <v>1.171220871536094</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>10.74516301845657</v>
+        <v>0.01201850686603815</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.171220871536094</v>
+        <v>4.841008812176374</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01201850686603815</v>
+        <v>0.9598957210879556</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>4.841008812176374</v>
+        <v>0.9424508430692843</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9598957210879556</v>
+        <v>105</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.9424508430692843</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>105</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>5.024426683025927</v>
       </c>
     </row>
@@ -9657,72 +9537,66 @@
         <v>8.489148159749091e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.09095815241234749</v>
+        <v>2.87938376910476e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.311875824336094</v>
+        <v>1.194564173356041e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>2.87938376910476e-07</v>
+        <v>-0.05653135084615449</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1.194564173356041e-06</v>
+        <v>0.02129730765292639</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.05653135084615449</v>
+        <v>0.003649057782099451</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.02129730765292639</v>
+        <v>1.937884272760458</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.003649057782099451</v>
+        <v>3.632564233902306</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.957918124214508</v>
+        <v>5.676041311714719</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>3.632564233902306</v>
+        <v>2.181282506923209e-18</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>5.676041311714719</v>
+        <v>32842321889.00856</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>2.181282506923209e-18</v>
+        <v>3.706645369560058e-09</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>32842321889.00856</v>
+        <v>2352.770808583332</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>3.706645369560058e-09</v>
+        <v>0.0001033774782487919</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>2352.770808583332</v>
+        <v>12.19308481596051</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001033774782487919</v>
+        <v>1.047398803536748</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>12.19308481596051</v>
+        <v>0.01536926587341931</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.047398803536748</v>
+        <v>4.797628343900232</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01536926587341931</v>
+        <v>0.9586342833890448</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>4.797628343900232</v>
+        <v>0.9654389119458864</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9586342833890448</v>
+        <v>86</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.9654389119458864</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>86</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>5.48247564930953</v>
       </c>
     </row>
@@ -9737,72 +9611,66 @@
         <v>8.399305801772177e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.09712742381776511</v>
+        <v>2.806535526095675e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.34190068010104</v>
+        <v>1.189825698878444e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>2.806535526095675e-07</v>
+        <v>-0.0556905320443587</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1.189825698878444e-06</v>
+        <v>0.02114354829687938</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.0556905320443587</v>
+        <v>0.003548155610033777</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.02114354829687938</v>
+        <v>1.942998220381631</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.003548155610033777</v>
+        <v>3.354290035576604</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.96036193486053</v>
+        <v>5.742892560932574</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>3.354290035576604</v>
+        <v>2.130794803202569e-18</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>5.742892560932574</v>
+        <v>33100406052.74767</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>2.130794803202569e-18</v>
+        <v>3.685570680461907e-09</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>33100406052.74767</v>
+        <v>2334.577371926688</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>3.685570680461907e-09</v>
+        <v>9.527191183010107e-05</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>2334.577371926688</v>
+        <v>11.29362045507959</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>9.527191183010107e-05</v>
+        <v>1.109178194078163</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>11.29362045507959</v>
+        <v>0.01215153821244788</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.109178194078163</v>
+        <v>5.052381443729785</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01215153821244788</v>
+        <v>0.9588727056794814</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>5.052381443729785</v>
+        <v>0.9939383629917583</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9588727056794814</v>
+        <v>84</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.9939383629917583</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>5.567912478152696</v>
       </c>
     </row>
@@ -9817,72 +9685,66 @@
         <v>8.313205102627368e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.1084409630687017</v>
+        <v>2.73289883060014e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.366184061982272</v>
+        <v>1.185209327361145e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>2.73289883060014e-07</v>
+        <v>-0.05479061544693582</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1.185209327361145e-06</v>
+        <v>0.02108929321423475</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.05479061544693582</v>
+        <v>0.003446472664976251</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.02108929321423475</v>
+        <v>1.942021842040491</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.003446472664976251</v>
+        <v>3.476206765075429</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.958487811585476</v>
+        <v>5.835500522837977</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>3.476206765075429</v>
+        <v>2.651826574955981e-18</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>5.835500522837977</v>
+        <v>26304303452.44926</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>2.651826574955981e-18</v>
+        <v>4.628524754848448e-09</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>26304303452.44926</v>
+        <v>1834.842244445673</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>4.628524754848448e-09</v>
+        <v>8.293776978882921e-05</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>1834.842244445673</v>
+        <v>9.532744869000137</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>8.293776978882921e-05</v>
+        <v>1.332311032209359</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>9.532744869000137</v>
+        <v>0.007536822593243039</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.332311032209359</v>
+        <v>5.389620150045113</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.007536822593243039</v>
+        <v>0.9589027223164927</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>5.389620150045113</v>
+        <v>0.9861584186610157</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9589027223164927</v>
+        <v>84</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.9861584186610157</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>5.643105854888963</v>
       </c>
     </row>
@@ -9897,72 +9759,66 @@
         <v>8.22966062641351e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.1251215171400827</v>
+        <v>2.654344860588878e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.383932731310139</v>
+        <v>1.180718833881222e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>2.654344860588878e-07</v>
+        <v>-0.05375549997968448</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1.180718833881222e-06</v>
+        <v>0.02124673558217833</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.05375549997968448</v>
+        <v>0.003340764541889247</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.02124673558217833</v>
+        <v>1.939099553869515</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.003340764541889247</v>
+        <v>2.628445824595695</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.952788587928785</v>
+        <v>6.504631343449988</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>2.628445824595695</v>
+        <v>5.175897847730152e-18</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>6.504631343449988</v>
+        <v>12919218747.08429</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>5.175897847730152e-18</v>
+        <v>9.370119047712746e-09</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>12919218747.08429</v>
+        <v>863.8895088207202</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>9.370119047712746e-09</v>
+        <v>6.624072665485122e-05</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>863.8895088207202</v>
+        <v>8.621113318347174</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>6.624072665485122e-05</v>
+        <v>1.635464969524816</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.621113318347174</v>
+        <v>0.004923248930317902</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.635464969524816</v>
+        <v>5.746458504368925</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.004923248930317902</v>
+        <v>0.9577622362884187</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>5.746458504368925</v>
+        <v>1.040669813331166</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9577622362884187</v>
+        <v>84</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.040669813331166</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>5.914702386515311</v>
       </c>
     </row>
@@ -9977,72 +9833,66 @@
         <v>8.147178883959154e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.1477716718724627</v>
+        <v>2.570809127981603e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.394083851472748</v>
+        <v>1.1763668409107e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>2.570809127981603e-07</v>
+        <v>-0.05249573483099815</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1.1763668409107e-06</v>
+        <v>0.02186961975112159</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.05249573483099815</v>
+        <v>0.003233767322970145</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.02186961975112159</v>
+        <v>1.938829269617388</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.003233767322970145</v>
+        <v>2.326970978890759</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.947386680813347</v>
+        <v>5.40102786598573</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2.326970978890759</v>
+        <v>1.334811479393383e-17</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>5.40102786598573</v>
+        <v>5014274572.557093</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.334811479393383e-17</v>
+        <v>2.412364627588033e-08</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>5014274572.557093</v>
+        <v>335.6109760371533</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>2.412364627588033e-08</v>
+        <v>0.0001001011151694424</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>335.6109760371533</v>
+        <v>10.36093781869871</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001001011151694424</v>
+        <v>1.681138869233283</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>10.36093781869871</v>
+        <v>0.01074575786390312</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.681138869233283</v>
+        <v>5.1738000912854</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01074575786390312</v>
+        <v>0.9598276230782783</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>5.1738000912854</v>
+        <v>1.114016169271892</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9598276230782783</v>
+        <v>84</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.114016169271892</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>4.464980859886162</v>
       </c>
     </row>
@@ -10057,72 +9907,66 @@
         <v>8.062720665424383e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.1769652953325158</v>
+        <v>2.491407799184072e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.395926919899782</v>
+        <v>1.172171676328484e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>2.491407799184072e-07</v>
+        <v>-0.05096800250086456</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>1.172171676328484e-06</v>
+        <v>0.02355555765015859</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.05096800250086456</v>
+        <v>0.003152263724010516</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.02355555765015859</v>
+        <v>1.939723063840752</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.003152263724010516</v>
+        <v>2.103297995041412</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.947836746704819</v>
+        <v>4.401473898371877</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>2.103297995041412</v>
+        <v>2.845235416061165e-17</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.401473898371877</v>
+        <v>2365050707.693321</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>2.845235416061165e-17</v>
+        <v>5.126613249476994e-08</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>2365050707.693321</v>
+        <v>159.1472428960138</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>5.126613249476994e-08</v>
+        <v>0.0001733520435057579</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>159.1472428960138</v>
+        <v>11.28139761229241</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001733520435057579</v>
+        <v>1.412251943750351</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>11.28139761229241</v>
+        <v>0.02206250280405751</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.412251943750351</v>
+        <v>3.781348306456121</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.02206250280405751</v>
+        <v>0.9598473857471279</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.781348306456121</v>
+        <v>1.149309824915941</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9598473857471279</v>
+        <v>84</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.149309824915941</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>2.054714533760976</v>
       </c>
     </row>
@@ -10137,72 +9981,66 @@
         <v>7.972228869566038e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.2128347587187445</v>
+        <v>2.418905015689181e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.388853264562403</v>
+        <v>1.168151117963368e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>2.418905015689181e-07</v>
+        <v>-0.04933816404170745</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1.168151117963368e-06</v>
+        <v>0.02609624555206285</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.04933816404170745</v>
+        <v>0.003115010148544482</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.02609624555206285</v>
+        <v>1.904410862618942</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.003115010148544482</v>
+        <v>2.147326094971237</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.895321323471993</v>
+        <v>5.594163719803602</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>2.147326094971237</v>
+        <v>3.308297550022321e-17</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>5.594163719803602</v>
+        <v>2112290834.129696</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>3.308297550022321e-17</v>
+        <v>5.701193338003025e-08</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>2112290834.129696</v>
+        <v>147.6087125530026</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>5.701193338003025e-08</v>
+        <v>0.0001655094443689922</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>147.6087125530026</v>
+        <v>12.50261702576498</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001655094443689922</v>
+        <v>1.001653045838134</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>12.50261702576498</v>
+        <v>0.0258716803782066</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.001653045838134</v>
+        <v>3.138711074127756</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.0258716803782066</v>
+        <v>0.9609254607971469</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>3.138711074127756</v>
+        <v>1.3926226661054</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9609254607971469</v>
+        <v>85</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.3926226661054</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>85</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>1.527099595192335</v>
       </c>
     </row>
@@ -10217,72 +10055,66 @@
         <v>7.874469569262985e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.2542542326764503</v>
+        <v>2.356257421443837e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.372011925245566</v>
+        <v>1.164293394600982e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>2.356257421443837e-07</v>
+        <v>-0.04811987029785287</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>1.164293394600982e-06</v>
+        <v>0.02806168477846003</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.04811987029785287</v>
+        <v>0.003102917454421012</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.02806168477846003</v>
+        <v>1.88898800819587</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.003102917454421012</v>
+        <v>2.065314824350848</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.873836352694013</v>
+        <v>5.347746943813182</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>2.065314824350848</v>
+        <v>5.587125592612581e-17</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>5.347746943813182</v>
+        <v>1261141808.999857</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>5.587125592612581e-17</v>
+        <v>9.520099566975856e-08</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>1261141808.999857</v>
+        <v>88.86204039240788</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>9.520099566975856e-08</v>
+        <v>0.0001607128153575499</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>88.86204039240788</v>
+        <v>8.849274436241121</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001607128153575499</v>
+        <v>1.43831954787641</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>8.849274436241121</v>
+        <v>0.01258536561456673</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.43831954787641</v>
+        <v>3.230031189457044</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01258536561456673</v>
+        <v>0.9603667433147145</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.230031189457044</v>
+        <v>1.486897866717109</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9603667433147145</v>
+        <v>64</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.486897866717109</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.7657036055793958</v>
       </c>
     </row>
@@ -10297,72 +10129,66 @@
         <v>7.770031270762622e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.2993390591485064</v>
+        <v>2.306500717488765e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.345393284696741</v>
+        <v>1.16055694128617e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>2.306500717488765e-07</v>
+        <v>-0.04750617908445202</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>1.16055694128617e-06</v>
+        <v>0.02939143401401447</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.04750617908445202</v>
+        <v>0.003120793942903273</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.02939143401401447</v>
+        <v>1.886257286090721</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.003120793942903273</v>
+        <v>2.09120437049141</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.865068725774955</v>
+        <v>4.633521830030595</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>2.09120437049141</v>
+        <v>7.442309097925895e-17</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>4.633521830030595</v>
+        <v>955374504.9998474</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>7.442309097925895e-17</v>
+        <v>1.25597675091606e-07</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>955374504.9998474</v>
+        <v>67.92896516407531</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>1.25597675091606e-07</v>
+        <v>0.0001526557529752365</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>67.92896516407531</v>
+        <v>7.946121722620441</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001526557529752365</v>
+        <v>1.625499040488915</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>7.946121722620441</v>
+        <v>0.009638814065995363</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.625499040488915</v>
+        <v>3.170348444374036</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.009638814065995363</v>
+        <v>0.9618117238504067</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.170348444374036</v>
+        <v>1.507523884085265</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9618117238504067</v>
+        <v>32</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.507523884085265</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.3882448508048577</v>
       </c>
     </row>
@@ -10377,72 +10203,66 @@
         <v>7.658000705099394e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.3462412437242032</v>
+        <v>2.272356495492638e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.310217840792622</v>
+        <v>1.156896010797314e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>2.272356495492638e-07</v>
+        <v>-0.04748403911445796</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>1.156896010797314e-06</v>
+        <v>0.03039984381907009</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.04748403911445796</v>
+        <v>0.003179102556627333</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.03039984381907009</v>
+        <v>1.88730694203621</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.003179102556627333</v>
+        <v>2.136883298167521</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.860235343197441</v>
+        <v>4.497791081116045</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>2.136883298167521</v>
+        <v>7.898262663589173e-17</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.497791081116045</v>
+        <v>915669933.3478241</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>7.898262663589173e-17</v>
+        <v>1.313956181038228e-07</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>915669933.3478241</v>
+        <v>66.22309599821395</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>1.313956181038228e-07</v>
+        <v>0.0001393793012183465</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>66.22309599821395</v>
+        <v>8.625077257984984</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001393793012183465</v>
+        <v>1.255575804669868</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>8.625077257984984</v>
+        <v>0.0103686990813563</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.255575804669868</v>
+        <v>3.041455909192056</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.0103686990813563</v>
+        <v>0.9614690999536096</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.041455909192056</v>
+        <v>1.507287580325049</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9614690999536096</v>
+        <v>13</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.507287580325049</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.2943105822581605</v>
       </c>
     </row>
@@ -10457,72 +10277,66 @@
         <v>7.535045948937761e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.3932137305504578</v>
+        <v>2.253402636862147e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.268895720051944</v>
+        <v>1.153274286913553e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>2.253402636862147e-07</v>
+        <v>-0.04790666290804296</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1.153274286913553e-06</v>
+        <v>0.03126763416638584</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.04790666290804296</v>
+        <v>0.003272994570794672</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.03126763416638584</v>
+        <v>1.882860953873577</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.003272994570794672</v>
+        <v>2.103133528556768</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.855296799980521</v>
+        <v>4.492261483866621</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>2.103133528556768</v>
+        <v>7.917718828954028e-17</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>4.492261483866621</v>
+        <v>898997241.4342074</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>7.917718828954028e-17</v>
+        <v>1.338238605559624e-07</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>898997241.4342074</v>
+        <v>63.99069004235853</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>1.338238605559624e-07</v>
+        <v>0.0001438542845622032</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>63.99069004235853</v>
+        <v>9.50955364285814</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001438542845622032</v>
+        <v>1.193283028815502</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>9.50955364285814</v>
+        <v>0.01300897462832841</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.193283028815502</v>
+        <v>2.844766304694259</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.01300897462832841</v>
+        <v>0.9611265206328995</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.844766304694259</v>
+        <v>1.520572257034809</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9611265206328995</v>
+        <v>16</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.520572257034809</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.2652731828669824</v>
       </c>
     </row>
@@ -10537,72 +10351,66 @@
         <v>7.396597125085262e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.4386182002222614</v>
+        <v>2.245706593912569e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.22499510319492</v>
+        <v>1.14967149420738e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>2.245706593912569e-07</v>
+        <v>-0.04860224158585963</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>1.14967149420738e-06</v>
+        <v>0.03213135513925519</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.04860224158585963</v>
+        <v>0.003394902524917711</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.03213135513925519</v>
+        <v>1.873251744056655</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.003394902524917711</v>
+        <v>2.078905707587644</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.846444930500406</v>
+        <v>4.440448596452768</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>2.078905707587644</v>
+        <v>8.103570904385039e-17</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>4.440448596452768</v>
+        <v>849053486.5390277</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>8.103570904385039e-17</v>
+        <v>1.409827198434136e-07</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>849053486.5390277</v>
+        <v>58.41798002104944</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>1.409827198434136e-07</v>
+        <v>0.0001505082301209437</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>58.41798002104944</v>
+        <v>9.682598236170289</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001505082301209437</v>
+        <v>1.199464419027374</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>9.682598236170289</v>
+        <v>0.01411055424089535</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.199464419027374</v>
+        <v>2.792931699536081</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.01411055424089535</v>
+        <v>0.9603748086029673</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.792931699536081</v>
+        <v>1.532934702798269</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9603748086029673</v>
+        <v>10</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.532934702798269</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.2511136819924104</v>
       </c>
     </row>
@@ -10617,72 +10425,66 @@
         <v>7.238858500387926e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.4811969970862597</v>
+        <v>2.237112475661777e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.182701146411611</v>
+        <v>1.146089713699061e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>2.237112475661777e-07</v>
+        <v>-0.04920058368183906</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>1.146089713699061e-06</v>
+        <v>0.03354996566771577</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.04920058368183906</v>
+        <v>0.003546543581016146</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.03354996566771577</v>
+        <v>1.866100449902845</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.003546543581016146</v>
+        <v>2.059209177437369</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.839364768546164</v>
+        <v>4.223291485104712</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>2.059209177437369</v>
+        <v>8.958349805021284e-17</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.223291485104712</v>
+        <v>748667429.2592396</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>8.958349805021284e-17</v>
+        <v>1.598630924804108e-07</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>748667429.2592396</v>
+        <v>50.21181220813865</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>1.598630924804108e-07</v>
+        <v>0.0001616495914542097</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>50.21181220813865</v>
+        <v>8.754273405326938</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001616495914542097</v>
+        <v>1.330864846331925</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>8.754273405326938</v>
+        <v>0.01238838869669796</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.330864846331925</v>
+        <v>2.898223584689623</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.01238838869669796</v>
+        <v>0.9607052235434113</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.898223584689623</v>
+        <v>1.521568937363451</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9607052235434113</v>
+        <v>10</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.521568937363451</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.2255031281003118</v>
       </c>
     </row>
@@ -10697,72 +10499,66 @@
         <v>7.061612530270846e-08</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.5211819103842724</v>
+        <v>2.212415021328996e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-1.143596097901457</v>
+        <v>1.142565797703472e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>2.212415021328996e-07</v>
+        <v>-0.04919945851546481</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>1.142565797703472e-06</v>
+        <v>0.03620989762571428</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.04919945851546481</v>
+        <v>0.003731716990063758</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.03620989762571428</v>
+        <v>1.866122890022832</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.003731716990063758</v>
+        <v>2.071499124013617</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.838606628851913</v>
+        <v>3.947007724134627</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>2.071499124013617</v>
+        <v>1.046176770328822e-16</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>3.947007724134627</v>
+        <v>628347052.0160878</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>1.046176770328822e-16</v>
+        <v>1.886474336721194e-07</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>628347052.0160878</v>
+        <v>41.30515310594322</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>1.886474336721194e-07</v>
+        <v>0.000182679247286527</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>41.30515310594322</v>
+        <v>8.799449994889969</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.000182679247286527</v>
+        <v>1.510919877473592</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>8.799449994889969</v>
+        <v>0.01414491261358687</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.510919877473592</v>
+        <v>2.855344995362457</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.01414491261358687</v>
+        <v>0.9599879033038744</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>2.855344995362457</v>
+        <v>1.537045315600831</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9599879033038744</v>
+        <v>10</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.537045315600831</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.2023508400607775</v>
       </c>
     </row>
@@ -10777,72 +10573,66 @@
         <v>6.868159032841224e-08</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.5604042573980513</v>
+        <v>2.169437544349987e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-1.104228568372816</v>
+        <v>1.139161684390086e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>2.169437544349987e-07</v>
+        <v>-0.04838228471063619</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>1.139161684390086e-06</v>
+        <v>0.04026016881464345</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.04838228471063619</v>
+        <v>0.003961212513371709</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.04026016881464345</v>
+        <v>1.86039726466502</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.003961212513371709</v>
+        <v>2.004397224274445</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.831027146351294</v>
+        <v>4.138423183357241</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>2.004397224274445</v>
+        <v>1.262320653307369e-16</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>4.138423183357241</v>
+        <v>499866667.6380467</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>1.262320653307369e-16</v>
+        <v>2.375383459286114e-07</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>499866667.6380467</v>
+        <v>31.54118775735235</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>2.375383459286114e-07</v>
+        <v>0.0001694023212136312</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>31.54118775735235</v>
+        <v>9.862321433317939</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001694023212136312</v>
+        <v>1.254733362013841</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>9.862321433317939</v>
+        <v>0.01647698183249687</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.254733362013841</v>
+        <v>2.821439922001638</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.01647698183249687</v>
+        <v>0.9600667534739881</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>2.821439922001638</v>
+        <v>1.578149249540344</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9600667534739881</v>
+        <v>8</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.578149249540344</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.2045954211965856</v>
       </c>
     </row>
@@ -10857,72 +10647,66 @@
         <v>6.660873988530093e-08</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.6001172480441261</v>
+        <v>2.117632539508004e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-1.059848401923042</v>
+        <v>1.135938303867652e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>2.117632539508004e-07</v>
+        <v>-0.04674105812457614</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>1.135938303867652e-06</v>
+        <v>0.04620549212845391</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.04674105812457614</v>
+        <v>0.00431840789901101</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.04620549212845391</v>
+        <v>1.855085628682207</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.00431840789901101</v>
+        <v>1.892882419740506</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.819323252643188</v>
+        <v>4.020588686177073</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.892882419740506</v>
+        <v>1.592414885367891e-16</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>4.020588686177073</v>
+        <v>397125134.5104439</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>1.592414885367891e-16</v>
+        <v>2.987865871516391e-07</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>397125134.5104439</v>
+        <v>25.11371598523491</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>2.987865871516391e-07</v>
+        <v>0.0001604067216864684</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>25.11371598523491</v>
+        <v>10.94616165764513</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001604067216864684</v>
+        <v>1.074611624335696</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>10.94616165764513</v>
+        <v>0.01921968556975006</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.074611624335696</v>
+        <v>2.668016431272973</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.01921968556975006</v>
+        <v>0.9610579298343997</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>2.668016431272973</v>
+        <v>1.567322514804188</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9610579298343997</v>
+        <v>8</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.567322514804188</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.2163087370187633</v>
       </c>
     </row>
@@ -10937,72 +10721,66 @@
         <v>6.440820066561709e-08</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.6396021072950452</v>
+        <v>2.062140494996832e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-1.007554201524168</v>
+        <v>1.132946807519823e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>2.062140494996832e-07</v>
+        <v>-0.04449831369573211</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>1.132946807519823e-06</v>
+        <v>0.05350864557443527</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.04449831369573211</v>
+        <v>0.004841650298767662</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.05350864557443527</v>
+        <v>1.81785461294072</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.004841650298767662</v>
+        <v>1.926320061369787</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.771036279079639</v>
+        <v>3.978609154223457</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.926320061369787</v>
+        <v>1.626196290012478e-16</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>3.978609154223457</v>
+        <v>414816019.8663284</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>1.626196290012478e-16</v>
+        <v>2.839241031365179e-07</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>414816019.8663284</v>
+        <v>27.98233852090378</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>2.839241031365179e-07</v>
+        <v>0.000161529991886918</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>27.98233852090378</v>
+        <v>10.60465438674915</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.000161529991886918</v>
+        <v>1.097269967980889</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>10.60465438674915</v>
+        <v>0.01816545203643053</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.097269967980889</v>
+        <v>2.719025120631677</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.01816545203643053</v>
+        <v>0.9616048110753594</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>2.719025120631677</v>
+        <v>1.601717744058318</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9616048110753594</v>
+        <v>11</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.601717744058318</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.2122368364039181</v>
       </c>
     </row>
@@ -11017,72 +10795,66 @@
         <v>6.21186198549103e-08</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.677008366933878</v>
+        <v>2.003326635679142e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-0.9465245578086106</v>
+        <v>1.130206225060053e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>2.003326635679142e-07</v>
+        <v>-0.04205715095827037</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>1.130206225060053e-06</v>
+        <v>0.06053937517318194</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.04205715095827037</v>
+        <v>0.00543188659889241</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.06053937517318194</v>
+        <v>1.803118523224597</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.00543188659889241</v>
+        <v>1.969393976809832</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.750334515220471</v>
+        <v>3.949136971753508</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.969393976809832</v>
+        <v>1.650559280927361e-16</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>3.949136971753508</v>
+        <v>408024927.1611351</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>1.650559280927361e-16</v>
+        <v>2.877598405287624e-07</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>408024927.1611351</v>
+        <v>27.47922744717307</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>2.877598405287624e-07</v>
+        <v>0.0001770960185013535</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>27.47922744717307</v>
+        <v>9.497073736386328</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001770960185013535</v>
+        <v>1.329281737910973</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>9.497073736386328</v>
+        <v>0.01597307082315741</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.329281737910973</v>
+        <v>2.818970805216727</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.01597307082315741</v>
+        <v>0.9616883834201331</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>2.818970805216727</v>
+        <v>1.6295661582023</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9616883834201331</v>
+        <v>18</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.6295661582023</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.1960665135492456</v>
       </c>
     </row>
@@ -11097,72 +10869,66 @@
         <v>5.978538018465889e-08</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0.7098230527865795</v>
+        <v>1.944114247855904e-07</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>-0.8781560904556818</v>
+        <v>1.127727188108437e-06</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>1.944114247855904e-07</v>
+        <v>-0.03914091753014804</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>1.127727188108437e-06</v>
+        <v>0.06840321132037767</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>-0.03914091753014804</v>
+        <v>0.00620827001092624</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.06840321132037767</v>
+        <v>1.803736816215869</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.00620827001092624</v>
+        <v>1.893026660071384</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.750306386159133</v>
+        <v>3.877225437440878</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>1.893026660071384</v>
+        <v>1.712353454691762e-16</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>3.877225437440878</v>
+        <v>404777489.8130155</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>1.712353454691762e-16</v>
+        <v>2.906903333359469e-07</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>404777489.8130155</v>
+        <v>28.05602371549935</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>2.906903333359469e-07</v>
+        <v>0.0001775421779886132</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>28.05602371549935</v>
+        <v>9.124549152870186</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.0001775421779886132</v>
+        <v>1.453880204337867</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>9.124549152870186</v>
+        <v>0.01478169964021095</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>1.453880204337867</v>
+        <v>2.915853378916921</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.01478169964021095</v>
+        <v>0.9604663879439148</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>2.915853378916921</v>
+        <v>1.662156530081761</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9604663879439148</v>
+        <v>18</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>1.662156530081761</v>
-      </c>
-      <c r="Y38" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z38" s="2" t="n">
         <v>0.2027105665071773</v>
       </c>
     </row>
@@ -11177,72 +10943,66 @@
         <v>5.744714005615478e-08</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.7336334187929786</v>
+        <v>1.888595327641901e-07</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>-0.8090379189058128</v>
+        <v>1.125530456054778e-06</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>1.888595327641901e-07</v>
+        <v>-0.03574024234763262</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>1.125530456054778e-06</v>
+        <v>0.07733405612422969</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>-0.03574024234763262</v>
+        <v>0.007254944327048927</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.07733405612422969</v>
+        <v>1.78802891463632</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.007254944327048927</v>
+        <v>1.83977721455812</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1.724859963133805</v>
+        <v>3.809045715220401</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>1.83977721455812</v>
+        <v>1.77420235370349e-16</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>3.809045715220401</v>
+        <v>413532072.5345615</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>1.77420235370349e-16</v>
+        <v>2.825471875715085e-07</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>413532072.5345615</v>
+        <v>30.34041711350843</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>2.825471875715085e-07</v>
+        <v>0.0001448355174940485</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>30.34041711350843</v>
+        <v>9.247711782357289</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.0001448355174940485</v>
+        <v>1.382424376730845</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>9.247711782357289</v>
+        <v>0.01238635854298581</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>1.382424376730845</v>
+        <v>3.120471769553054</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.01238635854298581</v>
+        <v>0.9593519603702341</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>3.120471769553054</v>
+        <v>1.652849047955595</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.9593519603702341</v>
+        <v>19</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1.652849047955595</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z39" s="2" t="n">
         <v>0.2299132762277938</v>
       </c>
     </row>
@@ -11257,72 +11017,66 @@
         <v>5.514818384142724e-08</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0.7436688177769117</v>
+        <v>1.837211712846374e-07</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-0.751848728958576</v>
+        <v>1.123612776418866e-06</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>1.837211712846374e-07</v>
+        <v>-0.03234674335847484</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>1.123612776418866e-06</v>
+        <v>0.08573538747786327</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>-0.03234674335847484</v>
+        <v>0.008394062304249309</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.08573538747786327</v>
+        <v>1.781544033557279</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.008394062304249309</v>
+        <v>1.842712383710639</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1.71747176240265</v>
+        <v>3.767736896582792</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>1.842712383710639</v>
+        <v>1.813319720899379e-16</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>3.767736896582792</v>
+        <v>403657391.2944235</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>1.813319720899379e-16</v>
+        <v>2.891001678935611e-07</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>403657391.2944235</v>
+        <v>29.54610270442189</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>2.891001678935611e-07</v>
+        <v>0.0001154953487393847</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>29.54610270442189</v>
+        <v>9.963505575674679</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0.0001154953487393847</v>
+        <v>1.250409163378896</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>9.963505575674679</v>
+        <v>0.01146538997032109</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>1.250409163378896</v>
+        <v>3.209420711888176</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.01146538997032109</v>
+        <v>0.9594317151151717</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>3.209420711888176</v>
+        <v>1.66557672262767</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.9594317151151717</v>
+        <v>19</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>1.66557672262767</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z40" s="2" t="n">
         <v>0.2660811432830808</v>
       </c>
     </row>
@@ -11337,72 +11091,66 @@
         <v>5.293798149969407e-08</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0.7371127130330497</v>
+        <v>1.78649575648235e-07</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-0.719842841218413</v>
+        <v>1.121952354005398e-06</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>1.78649575648235e-07</v>
+        <v>-0.0291634535041026</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>1.121952354005398e-06</v>
+        <v>0.09290717080380555</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>-0.0291634535041026</v>
+        <v>0.009480386923667421</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.09290717080380555</v>
+        <v>1.771640241427866</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.009480386923667421</v>
+        <v>1.754583509800525</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1.70057486542382</v>
+        <v>4.801398944446428</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>1.754583509800525</v>
+        <v>2.616134651424622e-16</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>4.801398944446428</v>
+        <v>272644493.544192</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>2.616134651424622e-16</v>
+        <v>4.263457715902324e-07</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>272644493.544192</v>
+        <v>19.44704212700023</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>4.263457715902324e-07</v>
+        <v>0.0001139049692590274</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>19.44704212700023</v>
+        <v>10.96340277879482</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0.0001139049692590274</v>
+        <v>1.396194017862241</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>10.96340277879482</v>
+        <v>0.01369094452187515</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>1.396194017862241</v>
+        <v>3.300517871009745</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.01369094452187515</v>
+        <v>0.9602759942021749</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>3.300517871009745</v>
+        <v>1.684610248827416</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.9602759942021749</v>
+        <v>18</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1.684610248827416</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z41" s="2" t="n">
         <v>0.2861167316142354</v>
       </c>
     </row>
@@ -11417,72 +11165,66 @@
         <v>5.085381945351504e-08</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.7154779458667975</v>
+        <v>1.732307849362888e-07</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-0.7174026627064243</v>
+        <v>1.120503224887894e-06</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>1.732307849362888e-07</v>
+        <v>-0.02682575137590772</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>1.120503224887894e-06</v>
+        <v>0.09778103883005095</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>-0.02682575137590772</v>
+        <v>0.01027972186846479</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.09778103883005095</v>
+        <v>1.76503211249478</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.01027972186846479</v>
+        <v>1.738236966885562</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.686590963667407</v>
+        <v>4.217828656323838</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>1.738236966885562</v>
+        <v>3.672131949342147e-16</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>4.217828656323838</v>
+        <v>195939320.9972569</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>3.672131949342147e-16</v>
+        <v>5.928976716257374e-07</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>195939320.9972569</v>
+        <v>14.09812885350886</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>5.928976716257374e-07</v>
+        <v>0.0001268653729992995</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>14.09812885350886</v>
+        <v>11.05413994032149</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0.0001268653729992995</v>
+        <v>1.475977748175108</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>11.05413994032149</v>
+        <v>0.0155021886341211</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>1.475977748175108</v>
+        <v>3.355203967920547</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.0155021886341211</v>
+        <v>0.9597740902897551</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>3.355203967920547</v>
+        <v>1.684272590001882</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.9597740902897551</v>
+        <v>18</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>1.684272590001882</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z42" s="2" t="n">
         <v>0.2707273777424688</v>
       </c>
     </row>
@@ -11497,72 +11239,66 @@
         <v>4.890697521887873e-08</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0.6831315343572629</v>
+        <v>1.675124790308796e-07</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-0.738599218067939</v>
+        <v>1.119210472352852e-06</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>1.675124790308796e-07</v>
+        <v>-0.02506405630196954</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>1.119210472352852e-06</v>
+        <v>0.1015268780369008</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>-0.02506405630196954</v>
+        <v>0.0109350118991916</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.1015268780369008</v>
+        <v>1.755800725604783</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.0109350118991916</v>
+        <v>1.755383136686033</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.675665457722455</v>
+        <v>4.175414228213324</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>1.755383136686033</v>
+        <v>3.747114904278568e-16</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>4.175414228213324</v>
+        <v>191192963.3517003</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>3.747114904278568e-16</v>
+        <v>6.044843484930474e-07</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>191192963.3517003</v>
+        <v>13.69748456814008</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>6.044843484930474e-07</v>
+        <v>0.0001243618351170129</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>13.69748456814008</v>
+        <v>10.52149444508166</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0.0001243618351170129</v>
+        <v>1.155910278937194</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>10.52149444508166</v>
+        <v>0.01376708463954624</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>1.155910278937194</v>
+        <v>3.214862998117119</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.01376708463954624</v>
+        <v>0.9562933222758142</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>3.214862998117119</v>
+        <v>1.719928145215938</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9562933222758142</v>
+        <v>18</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>1.719928145215938</v>
-      </c>
-      <c r="Y43" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z43" s="2" t="n">
         <v>0.2519469305745278</v>
       </c>
     </row>
@@ -11939,7 +11675,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.244716275509319</v>
+        <v>1.249181235032375</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.714926202734642</v>
@@ -12028,7 +11764,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.265986022499314</v>
+        <v>1.271032786113127</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.682864702329869</v>
@@ -12117,7 +11853,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.274108093939472</v>
+        <v>1.273392033187948</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.632197372470511</v>
@@ -12206,7 +11942,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.278379858173525</v>
+        <v>1.278763216108244</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.693776642769667</v>
@@ -12295,7 +12031,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.298727039418434</v>
+        <v>1.299711775002178</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.683457283951027</v>
@@ -12384,7 +12120,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.29978341647273</v>
+        <v>1.300500218699573</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.684395645019656</v>
@@ -12473,7 +12209,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.295995010527586</v>
+        <v>1.296398429201748</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.684098045488291</v>
@@ -12562,7 +12298,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.296348978743831</v>
+        <v>1.294793613513109</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.687201448421164</v>
@@ -12651,7 +12387,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.32151733185851</v>
+        <v>1.320312854765722</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.671567732860514</v>
@@ -12740,7 +12476,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.333386798555494</v>
+        <v>1.330386926825223</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.617883079840907</v>
@@ -12829,7 +12565,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.358974748962479</v>
+        <v>1.349914166330325</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.662740321313433</v>
@@ -12918,7 +12654,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.331803804695395</v>
+        <v>1.324828679792794</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.691544357155781</v>
@@ -13007,7 +12743,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.346122927319785</v>
+        <v>1.33948652663364</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.661734805260505</v>
@@ -13096,7 +12832,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.405760942339528</v>
+        <v>1.388012809964586</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.55198553967083</v>
@@ -13185,7 +12921,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.499538028480512</v>
+        <v>1.484845147905799</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.136268062156326</v>
@@ -13274,7 +13010,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.504067781838664</v>
+        <v>1.493023909763735</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.996127872682353</v>
@@ -13363,7 +13099,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.466782934193049</v>
+        <v>1.456623035541981</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.08296476866667</v>
@@ -13452,7 +13188,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.461427306298918</v>
+        <v>1.451471754850115</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.059611380464366</v>
@@ -13541,7 +13277,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.484309864619253</v>
+        <v>1.474949973039797</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.072848911866848</v>
@@ -13630,7 +13366,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.480024114589214</v>
+        <v>1.472056653372784</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.000607150773686</v>
@@ -13719,7 +13455,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.444511172282798</v>
+        <v>1.437275654910745</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.025624113480602</v>
@@ -13808,7 +13544,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.440497716458051</v>
+        <v>1.433955950375299</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.049292777416182</v>
@@ -13897,7 +13633,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.413916652206743</v>
+        <v>1.415001249767252</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.096824805405237</v>
@@ -13986,7 +13722,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.407579412633621</v>
+        <v>1.411564656378171</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.082396765865417</v>
@@ -14075,7 +13811,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.405447936694211</v>
+        <v>1.409872435894207</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.132904973187571</v>
@@ -14164,7 +13900,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.427500015780226</v>
+        <v>1.436965074199323</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.089112935410326</v>
@@ -14253,7 +13989,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.483865915754712</v>
+        <v>1.485716090148498</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.09620019636266</v>
@@ -14342,7 +14078,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.48453753002913</v>
+        <v>1.490749045107187</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.000083910265986</v>
@@ -14431,7 +14167,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.475000364343295</v>
+        <v>1.480998854768897</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.990663669856251</v>
@@ -14520,7 +14256,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.472840188808977</v>
+        <v>1.484330227685395</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.012507577909215</v>
@@ -14609,7 +14345,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.459868302753585</v>
+        <v>1.457753521148517</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.854221523072713</v>
@@ -14698,7 +14434,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.470347779628397</v>
+        <v>1.47718984832273</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.976589535338831</v>
@@ -14787,7 +14523,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.478227980156204</v>
+        <v>1.487405200146015</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.037560306644607</v>
@@ -14876,7 +14612,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.487437522474882</v>
+        <v>1.499147727060789</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.997053766010055</v>
@@ -14965,7 +14701,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.450167964869472</v>
+        <v>1.460038614011173</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.018053014545226</v>
@@ -15054,7 +14790,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.496076081376362</v>
+        <v>1.503935115639788</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.973434833424913</v>
@@ -15143,7 +14879,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.501745121792149</v>
+        <v>1.509672039760016</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.051263936088474</v>
@@ -15232,7 +14968,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.554179745242335</v>
+        <v>1.552034280056054</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.123197775805245</v>
@@ -15321,7 +15057,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.539826884453275</v>
+        <v>1.51731265397161</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.895550526542781</v>
@@ -15410,7 +15146,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.474769625309836</v>
+        <v>1.477440716132788</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.943761008430887</v>
@@ -15499,7 +15235,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.470741470036057</v>
+        <v>1.475541278791205</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.93575944556719</v>
@@ -15588,7 +15324,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.475855043877406</v>
+        <v>1.482792913949103</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.93261709554944</v>
@@ -15677,7 +15413,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.410833077323409</v>
+        <v>1.423220255296795</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.994614093476619</v>
@@ -15766,7 +15502,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.412060279514592</v>
+        <v>1.423166557957935</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.023056994717308</v>
@@ -15855,7 +15591,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.435153392215303</v>
+        <v>1.44932205735343</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.941968751041628</v>
@@ -15944,7 +15680,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.44310972245123</v>
+        <v>1.442582142147159</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.027654766330713</v>
@@ -16033,7 +15769,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.437135812232392</v>
+        <v>1.447537327743377</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.026100003612355</v>
@@ -16122,7 +15858,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.441065533565761</v>
+        <v>1.447965247082071</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.038330228735151</v>
@@ -16211,7 +15947,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.437950658891726</v>
+        <v>1.441910744407742</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.044967707084508</v>
@@ -16300,7 +16036,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.430432644587335</v>
+        <v>1.431487927619373</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.05696616523597</v>
@@ -16389,7 +16125,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.433725494829602</v>
+        <v>1.435986023001119</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.060716776401413</v>
@@ -16478,7 +16214,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.429063113326113</v>
+        <v>1.430954181004778</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.044830701306878</v>
@@ -16567,7 +16303,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.401721498623833</v>
+        <v>1.40287510983423</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.056262886826364</v>
@@ -16656,7 +16392,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.435130359172714</v>
+        <v>1.43589021865158</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.201105266224355</v>
@@ -16745,7 +16481,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.437560561787352</v>
+        <v>1.438826907138014</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.097010637584224</v>
@@ -16834,7 +16570,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.384326864805776</v>
+        <v>1.384943557777609</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.046625016817083</v>
@@ -16923,7 +16659,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.39293620949272</v>
+        <v>1.395243264444081</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.046666399685316</v>
@@ -17012,7 +16748,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.442362218241323</v>
+        <v>1.441690498223657</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.09020945448408</v>
@@ -17101,7 +16837,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.447350779545015</v>
+        <v>1.445654372143726</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.145414001545613</v>
@@ -17190,7 +16926,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.449421330047597</v>
+        <v>1.449645617548659</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.126166678964441</v>
@@ -17279,7 +17015,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.447138531107923</v>
+        <v>1.451701389740443</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.107376135436792</v>
@@ -17368,7 +17104,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.43921745603914</v>
+        <v>1.445909207576724</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.139222624412829</v>
@@ -17457,7 +17193,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.434459228384596</v>
+        <v>1.443337868906569</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.204985868090209</v>
@@ -17546,7 +17282,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.443362671673107</v>
+        <v>1.451776699033227</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.10037197129506</v>
@@ -17635,7 +17371,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.484816156707217</v>
+        <v>1.496602603437502</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.090941546692797</v>
@@ -17724,7 +17460,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.479828374121407</v>
+        <v>1.490854747513541</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.101661589115238</v>
@@ -17813,7 +17549,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.443731392813008</v>
+        <v>1.455238503828168</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.012127120396275</v>
@@ -17902,7 +17638,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.473592958123429</v>
+        <v>1.481655393302149</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.049244250574867</v>
@@ -17991,7 +17727,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.477885427590213</v>
+        <v>1.486246009704022</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.07438579796193</v>
@@ -18080,7 +17816,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.488909343361204</v>
+        <v>1.494829926178494</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.000903394444275</v>
@@ -18169,7 +17905,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.484314205956309</v>
+        <v>1.492946832322351</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.040664367504573</v>
@@ -18258,7 +17994,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.463089377178777</v>
+        <v>1.47228318580266</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.119004016345337</v>
@@ -18347,7 +18083,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.468269337333673</v>
+        <v>1.477429998121987</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.982177677579166</v>
@@ -18436,7 +18172,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.416894101771046</v>
+        <v>1.425430521389023</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.970509760701643</v>
@@ -18525,7 +18261,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.373143815735409</v>
+        <v>1.382335737689828</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.898676736909827</v>
@@ -18614,7 +18350,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.383355590128413</v>
+        <v>1.383620338724621</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.926859102321786</v>
@@ -18703,7 +18439,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.386826452841826</v>
+        <v>1.387288931900603</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.903735190070063</v>
@@ -18792,7 +18528,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.373119557919376</v>
+        <v>1.374119152458355</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.936464253349531</v>
@@ -18881,7 +18617,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.376018954360549</v>
+        <v>1.370693993604019</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.953157789997688</v>
@@ -18970,7 +18706,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.356911742979217</v>
+        <v>1.358037341082887</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.971623761402403</v>
@@ -19059,7 +18795,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.335388317577559</v>
+        <v>1.339662502698346</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.931929967858861</v>
@@ -19148,7 +18884,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.347922518607253</v>
+        <v>1.352237885296316</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>1.991424099615369</v>
@@ -19237,7 +18973,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.318047194051594</v>
+        <v>1.328084305312458</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.011963328707319</v>
@@ -19326,7 +19062,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.311840010346406</v>
+        <v>1.321145303203618</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>1.982988030833455</v>
@@ -19415,7 +19151,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.292082605354693</v>
+        <v>1.299673171809519</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.017813603386887</v>
@@ -19504,7 +19240,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.286661499722217</v>
+        <v>1.298132617715876</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>1.990923524466041</v>
@@ -19593,7 +19329,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.2847386604144</v>
+        <v>1.295931190216587</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.031158660536499</v>
@@ -19879,7 +19615,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.360715076651789</v>
+        <v>1.379627490203759</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.183231065799677</v>
@@ -19968,7 +19704,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.406523446778333</v>
+        <v>1.42564208200786</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.12985915195274</v>
@@ -20057,7 +19793,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.40798070690295</v>
+        <v>1.420644087891292</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.978711410612139</v>
@@ -20146,7 +19882,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.419708068087359</v>
+        <v>1.435502277825774</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.1901997460375</v>
@@ -20235,7 +19971,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.457757674400637</v>
+        <v>1.469535863267448</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.215822567854162</v>
@@ -20324,7 +20060,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.470232568794857</v>
+        <v>1.47887010878664</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.148787917351105</v>
@@ -20413,7 +20149,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.467567091763469</v>
+        <v>1.478616229066309</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.105613908586385</v>
@@ -20502,7 +20238,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.485157772952484</v>
+        <v>1.493312504065775</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.170010225337321</v>
@@ -20591,7 +20327,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.539797196630167</v>
+        <v>1.544281034100884</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.144980444248929</v>
@@ -20680,7 +20416,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.554553747243581</v>
+        <v>1.556313326093564</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.975300489225277</v>
@@ -20769,7 +20505,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.547033345727971</v>
+        <v>1.544842311448806</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.935076116029438</v>
@@ -20858,7 +20594,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.517485239639307</v>
+        <v>1.522835850454152</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.995574295464239</v>
@@ -20947,7 +20683,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.513601535171417</v>
+        <v>1.522203769967167</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.913186060127992</v>
@@ -21036,7 +20772,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.517732838823426</v>
+        <v>1.529007255613578</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.962202636039526</v>
@@ -21125,7 +20861,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.539784091826863</v>
+        <v>1.547301407000294</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.982697542637556</v>
@@ -21214,7 +20950,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.541552280263971</v>
+        <v>1.556569212548925</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.011252385627181</v>
@@ -21303,7 +21039,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.5128591939376</v>
+        <v>1.529161463897688</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.019853342299658</v>
@@ -21392,7 +21128,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.515802819578485</v>
+        <v>1.531533651076397</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.045967373230734</v>
@@ -21481,7 +21217,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.518124758281128</v>
+        <v>1.536028332949175</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.022118571968121</v>
@@ -21570,7 +21306,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.51547714431223</v>
+        <v>1.532836528949792</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.996745003286885</v>
@@ -21659,7 +21395,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.475200401172402</v>
+        <v>1.495545530077966</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.978503454912791</v>
@@ -21748,7 +21484,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.464019813839521</v>
+        <v>1.485828270592075</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.04995701898594</v>
@@ -21837,7 +21573,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.426103497429715</v>
+        <v>1.451458511508058</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.039567622363909</v>
@@ -21926,7 +21662,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.424300660591698</v>
+        <v>1.450193047925065</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.055497677590441</v>
@@ -22015,7 +21751,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.425005488937391</v>
+        <v>1.450519812405376</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.108860801585409</v>
@@ -22104,7 +21840,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.456482263148508</v>
+        <v>1.484642463179102</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.310037909854467</v>
@@ -22193,7 +21929,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.491190970042738</v>
+        <v>1.510237903569362</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.264087779475187</v>
@@ -22282,7 +22018,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.502890167227879</v>
+        <v>1.524418667403017</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.115644721481241</v>
@@ -22371,7 +22107,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.500525740663637</v>
+        <v>1.521201401134355</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.085704847627324</v>
@@ -22460,7 +22196,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.493137477253366</v>
+        <v>1.516387049461588</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.036801478008307</v>
@@ -22549,7 +22285,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.462662530061636</v>
+        <v>1.476221227118959</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.950814226292552</v>
@@ -22638,7 +22374,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.467462064380829</v>
+        <v>1.486360581439658</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.081560983784015</v>
@@ -22727,7 +22463,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.475635821409837</v>
+        <v>1.494669971165874</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.093272942630952</v>
@@ -22816,7 +22552,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.487812450289284</v>
+        <v>1.508976475580571</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.047279673995045</v>
@@ -22905,7 +22641,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.456641593186525</v>
+        <v>1.477980454973016</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.144204680974973</v>
@@ -22994,7 +22730,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.504429612315542</v>
+        <v>1.518848487113193</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.103672516697922</v>
@@ -23083,7 +22819,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.508035927633729</v>
+        <v>1.523235823798277</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.221318750188588</v>
@@ -23172,7 +22908,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.560472605620482</v>
+        <v>1.565796203181512</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.281496315389246</v>
@@ -23261,7 +22997,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.544838106067624</v>
+        <v>1.542650151069747</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.25269723492896</v>
@@ -23350,7 +23086,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.50456602844109</v>
+        <v>1.513331973830747</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.289011999179728</v>
@@ -23439,7 +23175,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.506588992192808</v>
+        <v>1.51583809962867</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.201242691134024</v>
@@ -23528,7 +23264,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.506631799590046</v>
+        <v>1.515438660631854</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.317564538430883</v>
@@ -23617,7 +23353,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.4524315496552</v>
+        <v>1.464051424983959</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.003422149599793</v>
@@ -23706,7 +23442,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.455861101475603</v>
+        <v>1.468374644066788</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.018280860375712</v>
@@ -23795,7 +23531,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.467296407069626</v>
+        <v>1.478171322107716</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.146418736829195</v>
@@ -23884,7 +23620,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.475032914608065</v>
+        <v>1.477101881800708</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.081308980645317</v>
@@ -23973,7 +23709,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.470814523753679</v>
+        <v>1.478670663445075</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.059636798018776</v>
@@ -24062,7 +23798,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.463882189499264</v>
+        <v>1.472126663926078</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.044168428285022</v>
@@ -24151,7 +23887,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.460591728579947</v>
+        <v>1.463757810619835</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.056000372056922</v>
@@ -24240,7 +23976,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.455385516064932</v>
+        <v>1.455075787797464</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.059215168005648</v>
@@ -24329,7 +24065,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.448313072681028</v>
+        <v>1.44984594115975</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.00891374459918</v>
@@ -24418,7 +24154,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.44671658328285</v>
+        <v>1.447350281431885</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.058756862707718</v>
@@ -24507,7 +24243,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.400780748328265</v>
+        <v>1.401420693741122</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.077370244991683</v>
@@ -24596,7 +24332,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.413210093685621</v>
+        <v>1.413050127275642</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.177367686835027</v>
@@ -24685,7 +24421,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.413604715977614</v>
+        <v>1.415876442133252</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.087450830145963</v>
@@ -24774,7 +24510,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.371780890540553</v>
+        <v>1.371351060567537</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.003948117324429</v>
@@ -24863,7 +24599,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.369141424783574</v>
+        <v>1.369280436707844</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.048777681790468</v>
@@ -24952,7 +24688,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.397665141888304</v>
+        <v>1.397764468828493</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.139220718814649</v>
@@ -25041,7 +24777,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.388895058940193</v>
+        <v>1.39032293593128</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.138825275917616</v>
@@ -25130,7 +24866,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.395577799246646</v>
+        <v>1.398541450558327</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.116167902459861</v>
@@ -25219,7 +24955,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.388211954239777</v>
+        <v>1.391283221009892</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.015101896788591</v>
@@ -25308,7 +25044,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.378334224830046</v>
+        <v>1.382026923457213</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.239476891048748</v>
@@ -25397,7 +25133,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.377134689121454</v>
+        <v>1.381409411946082</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.16213092264903</v>
@@ -25486,7 +25222,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.385795916595051</v>
+        <v>1.390192972875911</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.114275693533972</v>
@@ -25575,7 +25311,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.40790816197732</v>
+        <v>1.414387763049578</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.122865706102275</v>
@@ -25664,7 +25400,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.4050956428661</v>
+        <v>1.413490230718981</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.199108723255338</v>
@@ -25753,7 +25489,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.385672271343664</v>
+        <v>1.393179814815144</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.042017295356626</v>
@@ -25842,7 +25578,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.432698238314823</v>
+        <v>1.439205222739764</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.079479182222723</v>
@@ -25931,7 +25667,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.428085877067699</v>
+        <v>1.436338215815393</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.1779471880844</v>
@@ -26020,7 +25756,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.434747407131381</v>
+        <v>1.439212906327575</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.139035753548752</v>
@@ -26109,7 +25845,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.484598306880567</v>
+        <v>1.499644328085734</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.287915655814964</v>
@@ -26198,7 +25934,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.480852721194812</v>
+        <v>1.494918617662688</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.405613229276796</v>
@@ -26287,7 +26023,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.486428150077353</v>
+        <v>1.501309455069584</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.367706753876428</v>
@@ -26376,7 +26112,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.454696256517217</v>
+        <v>1.468585106547776</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.289371242362246</v>
@@ -26465,7 +26201,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.433157113601308</v>
+        <v>1.451994542933135</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.080282212876613</v>
@@ -26554,7 +26290,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.452886593603942</v>
+        <v>1.473440031274532</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.110402390878229</v>
@@ -26643,7 +26379,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.455573949983152</v>
+        <v>1.477193135262055</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.037330677774407</v>
@@ -26732,7 +26468,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.451707733185594</v>
+        <v>1.473321113475574</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.107989527776877</v>
@@ -26821,7 +26557,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.449467891512385</v>
+        <v>1.472692787574546</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.021581860005198</v>
@@ -26910,7 +26646,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.4453780996987</v>
+        <v>1.474118189884457</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.071248148262953</v>
@@ -26999,7 +26735,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.437725845099251</v>
+        <v>1.46832940591103</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.02345396382564</v>
@@ -27088,7 +26824,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.452089528655311</v>
+        <v>1.486305999539776</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.111028660170962</v>
@@ -27177,7 +26913,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.432758327841537</v>
+        <v>1.470570806771582</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.137340973810626</v>
@@ -27266,7 +27002,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.438198759685081</v>
+        <v>1.473996966492996</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.043734911877214</v>
@@ -27355,7 +27091,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.413164576245364</v>
+        <v>1.45191098447865</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.1838299001185</v>
@@ -27444,7 +27180,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.394611470853694</v>
+        <v>1.431124986528554</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.105597052748974</v>
@@ -27533,7 +27269,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.385352843651779</v>
+        <v>1.423749456237715</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.132409725199427</v>
@@ -27819,7 +27555,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.544094695039757</v>
+        <v>1.534468689332611</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.864789419381716</v>
@@ -27908,7 +27644,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.568509509470354</v>
+        <v>1.554807091342623</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.768135026648894</v>
@@ -27997,7 +27733,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.563187499954771</v>
+        <v>1.546829065429619</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.462561217975936</v>
@@ -28086,7 +27822,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.561772077926843</v>
+        <v>1.54620410033083</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.884899982079961</v>
@@ -28175,7 +27911,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.572493077567146</v>
+        <v>1.553640966694332</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.601161078011487</v>
@@ -28264,7 +28000,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.563918309434359</v>
+        <v>1.542630039781646</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.778732200071353</v>
@@ -28353,7 +28089,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.556152531640764</v>
+        <v>1.532617887902572</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.683273358205152</v>
@@ -28442,7 +28178,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.558939969934466</v>
+        <v>1.531955232653461</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.849894119269594</v>
@@ -28531,7 +28267,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.573732584214904</v>
+        <v>1.549083242884522</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.756739035582063</v>
@@ -28620,7 +28356,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.576748358235269</v>
+        <v>1.545103622204681</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.553835368091729</v>
@@ -28709,7 +28445,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.595921108429473</v>
+        <v>1.561741743150957</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.863583500374719</v>
@@ -28798,7 +28534,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.589604279174269</v>
+        <v>1.558760587012355</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.811190906193093</v>
@@ -28887,7 +28623,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.602189881756655</v>
+        <v>1.565799115864779</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.709752288454371</v>
@@ -28976,7 +28712,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.609055231099761</v>
+        <v>1.564117168814383</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.401256358883531</v>
@@ -29065,7 +28801,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.630780991183566</v>
+        <v>1.581057040190727</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.931089705959734</v>
@@ -29154,7 +28890,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.633755589563072</v>
+        <v>1.584954779481141</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.743601670031306</v>
@@ -29243,7 +28979,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.608553402831178</v>
+        <v>1.567367775085269</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.875732498588259</v>
@@ -29332,7 +29068,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.610280765537806</v>
+        <v>1.568082227532613</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.70036009878037</v>
@@ -29421,7 +29157,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.604969712186729</v>
+        <v>1.563138079517133</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.95410150136972</v>
@@ -29510,7 +29246,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.600714842826785</v>
+        <v>1.564264293192567</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.75046748461271</v>
@@ -29599,7 +29335,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.592243789788335</v>
+        <v>1.554446769721419</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.808698588840493</v>
@@ -29688,7 +29424,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.588956931801019</v>
+        <v>1.552330070175679</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.865017744427773</v>
@@ -29777,7 +29513,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.577288588071162</v>
+        <v>1.54884586875607</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.829493576683337</v>
@@ -29866,7 +29602,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.576055808727193</v>
+        <v>1.54557910682668</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.877143989598062</v>
@@ -29955,7 +29691,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.57915863273921</v>
+        <v>1.55057227887874</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.890036034458676</v>
@@ -30044,7 +29780,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.588125581900575</v>
+        <v>1.55656022258156</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.840375644502816</v>
@@ -30133,7 +29869,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.590704077657573</v>
+        <v>1.549499527222897</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.850197259732621</v>
@@ -30222,7 +29958,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.576588065760413</v>
+        <v>1.541643032706302</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.761023241249774</v>
@@ -30311,7 +30047,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.585262911631675</v>
+        <v>1.552042277012361</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.679232841560812</v>
@@ -30400,7 +30136,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.579998595898737</v>
+        <v>1.551369733678231</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.765409107373805</v>
@@ -30489,7 +30225,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.580689100753596</v>
+        <v>1.542499821749126</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.455038100725339</v>
@@ -30578,7 +30314,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.59612541825457</v>
+        <v>1.549626829367469</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.665228325492335</v>
@@ -30667,7 +30403,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.595904293439358</v>
+        <v>1.551329729013332</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.56264630639686</v>
@@ -30756,7 +30492,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.616585506886833</v>
+        <v>1.57319880841291</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.918501012370366</v>
@@ -30845,7 +30581,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.606533607908514</v>
+        <v>1.560031076303011</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.64344645188908</v>
@@ -30934,7 +30670,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.623448601223234</v>
+        <v>1.581571922173532</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.641087226414804</v>
@@ -31023,7 +30759,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.626685369101261</v>
+        <v>1.582945885328604</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.08536753997726</v>
@@ -31112,7 +30848,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.63892141841257</v>
+        <v>1.589149172516461</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.393353659957119</v>
@@ -31201,7 +30937,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.635753006870197</v>
+        <v>1.58346410501171</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.232579642669868</v>
@@ -31290,7 +31026,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.597482102393117</v>
+        <v>1.553868484366896</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.645358484543404</v>
@@ -31379,7 +31115,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.594853971601388</v>
+        <v>1.553171459962964</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.582569606749038</v>
@@ -31468,7 +31204,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.599143964339227</v>
+        <v>1.556953830061939</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.544303631635088</v>
@@ -31557,7 +31293,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.568804992140196</v>
+        <v>1.536145371148674</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.596076166716272</v>
@@ -31646,7 +31382,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.569066413685116</v>
+        <v>1.536390788455483</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.529880238037399</v>
@@ -31735,7 +31471,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.585896442452399</v>
+        <v>1.55160574332288</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.360391645008748</v>
@@ -31824,7 +31560,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.576336423169447</v>
+        <v>1.542054073306782</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.538638443849126</v>
@@ -31913,7 +31649,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.575919090146751</v>
+        <v>1.551793325458082</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.522622757736298</v>
@@ -32002,7 +31738,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.574985251447448</v>
+        <v>1.549666065138262</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.628181237323938</v>
@@ -32091,7 +31827,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.57065981408387</v>
+        <v>1.544398420669305</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.59536674808723</v>
@@ -32180,7 +31916,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.566401394593266</v>
+        <v>1.5355384081607</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.591376975067019</v>
@@ -32269,7 +32005,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.569303104585721</v>
+        <v>1.536102131852866</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.472470126458505</v>
@@ -32358,7 +32094,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.563663146270445</v>
+        <v>1.532571050668384</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.507744894362521</v>
@@ -32447,7 +32183,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.557210219604285</v>
+        <v>1.528453667173872</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.551617212982256</v>
@@ -32536,7 +32272,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.57016047336488</v>
+        <v>1.538272619641346</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.544789268859851</v>
@@ -32625,7 +32361,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.587643846661144</v>
+        <v>1.556649621705489</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.703854865365328</v>
@@ -32714,7 +32450,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.573733620263935</v>
+        <v>1.546939450765034</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.525049261306093</v>
@@ -32803,7 +32539,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.577368333101173</v>
+        <v>1.553179869552391</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.518008728148935</v>
@@ -32892,7 +32628,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.602383929988273</v>
+        <v>1.573626359291822</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.588495287056814</v>
@@ -32981,7 +32717,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.599424447890847</v>
+        <v>1.573548338827406</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.622517049502219</v>
@@ -33070,7 +32806,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.605572099730604</v>
+        <v>1.582888824693027</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.704521411877557</v>
@@ -33159,7 +32895,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.615623121387268</v>
+        <v>1.592701786709906</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.040179181532632</v>
@@ -33248,7 +32984,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.613172096531386</v>
+        <v>1.591017024254733</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.753869156285242</v>
@@ -33337,7 +33073,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.602924749366144</v>
+        <v>1.578387733890707</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.000487626415727</v>
@@ -33426,7 +33162,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.611356049679766</v>
+        <v>1.58514710418718</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.023405375698994</v>
@@ -33515,7 +33251,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.628798614876278</v>
+        <v>1.603520969284555</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.032486067855801</v>
@@ -33604,7 +33340,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.628777668396012</v>
+        <v>1.607587014588122</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.91785754211709</v>
@@ -33693,7 +33429,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.610350245511669</v>
+        <v>1.591837689454527</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.005888592591059</v>
@@ -33782,7 +33518,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.611364741422441</v>
+        <v>1.594127212521128</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.181285725210054</v>
@@ -33871,7 +33607,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.607950011126226</v>
+        <v>1.589787925449797</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.216518682717944</v>
@@ -33960,7 +33696,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.614338948555793</v>
+        <v>1.59388707133556</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.937086359535698</v>
@@ -34049,7 +33785,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.644388198606304</v>
+        <v>1.625131105957509</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.459667063018412</v>
@@ -34138,7 +33874,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.64557088275135</v>
+        <v>1.627873203753241</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.693671850370586</v>
@@ -34227,7 +33963,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.643889331020122</v>
+        <v>1.624859053319528</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.554601402704272</v>
@@ -34316,7 +34052,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.630932323087356</v>
+        <v>1.611102533112019</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.499485442925482</v>
@@ -34405,7 +34141,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.608854233983903</v>
+        <v>1.591685951563774</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.475483218049029</v>
@@ -34494,7 +34230,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.605583758715946</v>
+        <v>1.582101450458418</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.728186139693206</v>
@@ -34583,7 +34319,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.607675122684435</v>
+        <v>1.583758928878345</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.591611982082123</v>
@@ -34672,7 +34408,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.611618201323153</v>
+        <v>1.588832064818648</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.576919410858155</v>
@@ -34761,7 +34497,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.606151309477822</v>
+        <v>1.57704082950806</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.67711546859916</v>
@@ -34850,7 +34586,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.595477719625352</v>
+        <v>1.576155539182436</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.713147702525511</v>
@@ -34939,7 +34675,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.590235744751439</v>
+        <v>1.567268941648961</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.843406099886115</v>
@@ -35028,7 +34764,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.60597598383808</v>
+        <v>1.582425086961503</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.71257000589926</v>
@@ -35117,7 +34853,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.595711373391001</v>
+        <v>1.576249259556029</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.730073574439649</v>
@@ -35206,7 +34942,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.597579966182288</v>
+        <v>1.574250819960445</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.936212861625225</v>
@@ -35295,7 +35031,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.585014327867278</v>
+        <v>1.567099610856543</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.706490871090992</v>
@@ -35384,7 +35120,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.550792764618659</v>
+        <v>1.532345155005453</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.850510755163906</v>
@@ -35473,7 +35209,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.545854528956618</v>
+        <v>1.527773714977951</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.879601723266488</v>
@@ -35759,7 +35495,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.670743650579445</v>
+        <v>1.653365825173131</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.010067686906249</v>
@@ -35848,7 +35584,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.675951355563684</v>
+        <v>1.656056471389959</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.991515534088729</v>
@@ -35937,7 +35673,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.674090616632057</v>
+        <v>1.650765937175003</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.936854946944151</v>
@@ -36026,7 +35762,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.674847699222486</v>
+        <v>1.647203898665583</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.154181335317008</v>
@@ -36115,7 +35851,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.673297285131217</v>
+        <v>1.648711103798091</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.033477886398089</v>
@@ -36204,7 +35940,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.651656825732084</v>
+        <v>1.628326163331877</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.381584172396363</v>
@@ -36293,7 +36029,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.641938883167206</v>
+        <v>1.615054032935026</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.508618752698103</v>
@@ -36382,7 +36118,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.640107323040634</v>
+        <v>1.614838874551314</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.431507014237657</v>
@@ -36471,7 +36207,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.645460819205045</v>
+        <v>1.616729127901813</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.391153908246703</v>
@@ -36560,7 +36296,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.654268005479173</v>
+        <v>1.623324232063494</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.328878754462731</v>
@@ -36649,7 +36385,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.653821675707937</v>
+        <v>1.619388760400599</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.360441703778794</v>
@@ -36738,7 +36474,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.662094090980101</v>
+        <v>1.629422468515164</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.414451912022487</v>
@@ -36827,7 +36563,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.662427773175529</v>
+        <v>1.630718803376071</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.445714614444751</v>
@@ -36916,7 +36652,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.677541018149711</v>
+        <v>1.637943204620341</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.247240775566361</v>
@@ -37005,7 +36741,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.691297212535084</v>
+        <v>1.64492444956655</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.530752526712972</v>
@@ -37094,7 +36830,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.698787394820562</v>
+        <v>1.655514697072253</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.329506014709555</v>
@@ -37183,7 +36919,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.693532768050795</v>
+        <v>1.651512012766879</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.534116255141145</v>
@@ -37272,7 +37008,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.69244602502791</v>
+        <v>1.647905013290463</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.465328653241889</v>
@@ -37361,7 +37097,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.684421491371581</v>
+        <v>1.64222282404541</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.52809039949235</v>
@@ -37450,7 +37186,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.680494465395272</v>
+        <v>1.640566165615973</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.401890148402533</v>
@@ -37539,7 +37275,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.697884760440149</v>
+        <v>1.654438611255827</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.707582811302204</v>
@@ -37628,7 +37364,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.698761100774597</v>
+        <v>1.654882289407014</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.518443621410395</v>
@@ -37717,7 +37453,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.701628257420357</v>
+        <v>1.664642426526485</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.528715607491274</v>
@@ -37806,7 +37542,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.701524187802661</v>
+        <v>1.663596280584088</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.580832152602122</v>
@@ -37895,7 +37631,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.697269582266866</v>
+        <v>1.663923561586364</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.51026248803415</v>
@@ -37984,7 +37720,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.699725746961724</v>
+        <v>1.670046221667433</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.968684306892728</v>
@@ -38073,7 +37809,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.694172729910987</v>
+        <v>1.657887345076556</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.218106552632264</v>
@@ -38162,7 +37898,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.681427322309041</v>
+        <v>1.649054735586291</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.271312187854007</v>
@@ -38251,7 +37987,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.671326476409296</v>
+        <v>1.640532691763887</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.437841715498533</v>
@@ -38340,7 +38076,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.673670189791368</v>
+        <v>1.646038791078257</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.283926992822215</v>
@@ -38429,7 +38165,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.675448506724903</v>
+        <v>1.645375314279952</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.003086102821736</v>
@@ -38518,7 +38254,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.670295216700601</v>
+        <v>1.647820904950533</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.276175308395115</v>
@@ -38607,7 +38343,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.67376205909655</v>
+        <v>1.649696324295702</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.1438761860244</v>
@@ -38696,7 +38432,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.67526499527795</v>
+        <v>1.654182211029968</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.723797754238767</v>
@@ -38785,7 +38521,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.675287015627471</v>
+        <v>1.65076709636985</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.741547214075513</v>
@@ -38874,7 +38610,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.681001979055173</v>
+        <v>1.656871019803759</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.691425013854787</v>
@@ -38963,7 +38699,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.682661237834183</v>
+        <v>1.66336944601354</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.110582088663386</v>
@@ -39052,7 +38788,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.677651487336444</v>
+        <v>1.65104874757613</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.419167176700654</v>
@@ -39141,7 +38877,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.672615262944776</v>
+        <v>1.646831062754112</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.948068872798741</v>
@@ -39230,7 +38966,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.650029426147969</v>
+        <v>1.622589983676586</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.707936404596475</v>
@@ -39319,7 +39055,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.649361574773113</v>
+        <v>1.617631544752717</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.856262498775096</v>
@@ -39408,7 +39144,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.65485486365312</v>
+        <v>1.623347120618295</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.705493283941913</v>
@@ -39497,7 +39233,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.646639851873146</v>
+        <v>1.611385815282101</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.847334854193544</v>
@@ -39586,7 +39322,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.652429487943501</v>
+        <v>1.61306418739944</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.830427847179295</v>
@@ -39675,7 +39411,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.653878500962455</v>
+        <v>1.618071201489435</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.701805821049228</v>
@@ -39764,7 +39500,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.65416115608862</v>
+        <v>1.614545315395088</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.667515348741309</v>
@@ -39853,7 +39589,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.662024825745027</v>
+        <v>1.61924617566615</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.778475780024608</v>
@@ -39942,7 +39678,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.664063554229623</v>
+        <v>1.62767651352991</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.803660073910872</v>
@@ -40031,7 +39767,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.674937161519999</v>
+        <v>1.633340800235467</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.866584454697266</v>
@@ -40120,7 +39856,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.672733135181017</v>
+        <v>1.629240062765718</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.819622800842926</v>
@@ -40209,7 +39945,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.672115226287168</v>
+        <v>1.628438018955592</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.684131397417512</v>
@@ -40298,7 +40034,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.673843219416766</v>
+        <v>1.632436612442859</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.863198508739413</v>
@@ -40387,7 +40123,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.666279894371158</v>
+        <v>1.628679610365374</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.575170683427055</v>
@@ -40476,7 +40212,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.674676193271838</v>
+        <v>1.635559381992509</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.737999994691566</v>
@@ -40565,7 +40301,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.695091862034711</v>
+        <v>1.651865270233761</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.594798726483742</v>
@@ -40654,7 +40390,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.686129705099792</v>
+        <v>1.652605843307248</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.31454650996135</v>
@@ -40743,7 +40479,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.687157049596301</v>
+        <v>1.658274339690295</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.196470057526323</v>
@@ -40832,7 +40568,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.705571857154568</v>
+        <v>1.680365685233534</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.134445665660644</v>
@@ -40921,7 +40657,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.704321142093455</v>
+        <v>1.683679034286053</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.324029620098542</v>
@@ -41010,7 +40746,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.702062224956315</v>
+        <v>1.680912856148937</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.390127805472427</v>
@@ -41099,7 +40835,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.70563094855285</v>
+        <v>1.679637444623059</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.571309059181346</v>
@@ -41188,7 +40924,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.692511967594888</v>
+        <v>1.667322894281922</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.030051897140202</v>
@@ -41277,7 +41013,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.684529037209778</v>
+        <v>1.659107598395599</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.474184471822756</v>
@@ -41366,7 +41102,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.684501917702279</v>
+        <v>1.655632047507323</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.352219777902948</v>
@@ -41455,7 +41191,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.691868985417217</v>
+        <v>1.664420007437575</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.627873394781943</v>
@@ -41544,7 +41280,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.69647703584946</v>
+        <v>1.667443931193793</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.709405313135835</v>
@@ -41633,7 +41369,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.694390741040037</v>
+        <v>1.665340817872096</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.403865706059391</v>
@@ -41722,7 +41458,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.687539659744191</v>
+        <v>1.659543097231199</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.854892958947296</v>
@@ -41811,7 +41547,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.680169318337354</v>
+        <v>1.654354239837025</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.269568832096526</v>
@@ -41900,7 +41636,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.686888411954509</v>
+        <v>1.66158393097251</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.715263269007713</v>
@@ -41989,7 +41725,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.707337963541222</v>
+        <v>1.681387244153103</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.367491103757658</v>
@@ -42078,7 +41814,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.704810750795999</v>
+        <v>1.67966521428351</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.271698819940382</v>
@@ -42167,7 +41903,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.702274904996903</v>
+        <v>1.675162189527507</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.57690176317511</v>
@@ -42256,7 +41992,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.704013356457873</v>
+        <v>1.67289532549847</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.298383398218841</v>
@@ -42345,7 +42081,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.711593000479358</v>
+        <v>1.683858553453025</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.036030689749492</v>
@@ -42434,7 +42170,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.706599291344684</v>
+        <v>1.677753097366189</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.1876413039811</v>
@@ -42523,7 +42259,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.714482799598521</v>
+        <v>1.686303077735125</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.355091033363721</v>
@@ -42612,7 +42348,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.715097743854625</v>
+        <v>1.685916384611254</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.68831715433993</v>
@@ -42701,7 +42437,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.712787057263827</v>
+        <v>1.686570145131536</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.434131033785383</v>
@@ -42790,7 +42526,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.70930077553275</v>
+        <v>1.688072343850968</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.631964572430062</v>
@@ -42879,7 +42615,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.71406645889192</v>
+        <v>1.693053255004219</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.074732307591673</v>
@@ -42968,7 +42704,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.717191621036455</v>
+        <v>1.695483504066866</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.162365918824131</v>
@@ -43057,7 +42793,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.730181756280968</v>
+        <v>1.699540025284675</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.967539923953275</v>
@@ -43146,7 +42882,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.734331108937093</v>
+        <v>1.703458135084994</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.217305277858768</v>
@@ -43235,7 +42971,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.734144838452041</v>
+        <v>1.706509849800646</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.126324214243632</v>
@@ -43324,7 +43060,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.711906437728627</v>
+        <v>1.688383585306295</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.25954763716707</v>
@@ -43413,7 +43149,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.69752956325971</v>
+        <v>1.678794588401118</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.177676833521687</v>
@@ -43699,7 +43435,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.601854835968635</v>
+        <v>1.613128893523003</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.050699082928464</v>
@@ -43788,7 +43524,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.615211962172733</v>
+        <v>1.626710709828798</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.828556652519745</v>
@@ -43877,7 +43613,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.614339659332801</v>
+        <v>1.627073240980995</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.788077102513538</v>
@@ -43966,7 +43702,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.614954888481218</v>
+        <v>1.624591039454536</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.778650795488009</v>
@@ -44055,7 +43791,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.636526751456892</v>
+        <v>1.640190137904188</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.964795976336375</v>
@@ -44144,7 +43880,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.622986499407152</v>
+        <v>1.626907164702084</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.849987087073962</v>
@@ -44233,7 +43969,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.601381711133973</v>
+        <v>1.600456946418518</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.879183106300839</v>
@@ -44322,7 +44058,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.606566907273233</v>
+        <v>1.602158017014378</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.906428182468809</v>
@@ -44411,7 +44147,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.600134586600736</v>
+        <v>1.594412627428717</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.921240648641</v>
@@ -44500,7 +44236,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.605043578280317</v>
+        <v>1.598902454991685</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.716015255803267</v>
@@ -44589,7 +44325,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.592308370988164</v>
+        <v>1.582570584342794</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.753777897039001</v>
@@ -44678,7 +44414,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.596537925418781</v>
+        <v>1.589949914618494</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.581547655025734</v>
@@ -44767,7 +44503,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.604726467857651</v>
+        <v>1.595314997800271</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.358303837914943</v>
@@ -44856,7 +44592,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.599086954013144</v>
+        <v>1.588233281050348</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.51361556899648</v>
@@ -44945,7 +44681,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.617771188314409</v>
+        <v>1.604101859471392</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.566651455011917</v>
@@ -45034,7 +44770,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.612563475040979</v>
+        <v>1.605265605793758</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.495066613150879</v>
@@ -45123,7 +44859,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.597977977793511</v>
+        <v>1.594120840701052</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.626442135421192</v>
@@ -45212,7 +44948,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.600121921479297</v>
+        <v>1.59711439080573</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.605561295145763</v>
@@ -45301,7 +45037,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.59428538375321</v>
+        <v>1.596500025523331</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.55834192176228</v>
@@ -45390,7 +45126,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.591320528969789</v>
+        <v>1.592792001696006</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.600681003760346</v>
@@ -45479,7 +45215,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.618141410029117</v>
+        <v>1.620541380106705</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.667315722309204</v>
@@ -45568,7 +45304,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.621876864789878</v>
+        <v>1.629782749996018</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.501951188282676</v>
@@ -45657,7 +45393,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.616595611077998</v>
+        <v>1.628590173616861</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.580873971768152</v>
@@ -45746,7 +45482,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.622355075584407</v>
+        <v>1.636108535215431</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.67663117308742</v>
@@ -45835,7 +45571,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.618612001298038</v>
+        <v>1.631745285984127</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.675427129513386</v>
@@ -45924,7 +45660,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.624994508570356</v>
+        <v>1.639289985920984</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.683417324116572</v>
@@ -46013,7 +45749,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.63319292628033</v>
+        <v>1.642229701427361</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.332285455142892</v>
@@ -46102,7 +45838,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.630988940346341</v>
+        <v>1.642198950341349</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.11215941200749</v>
@@ -46191,7 +45927,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.644229550305599</v>
+        <v>1.656514996104695</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.148252164217177</v>
@@ -46280,7 +46016,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.639844434612709</v>
+        <v>1.655783554700273</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.358346370007184</v>
@@ -46369,7 +46105,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.657421538189923</v>
+        <v>1.664550919608998</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.714616882778155</v>
@@ -46458,7 +46194,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.66448522798056</v>
+        <v>1.670653466770281</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.47341087395599</v>
@@ -46547,7 +46283,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.661718544458584</v>
+        <v>1.668098012334486</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.421552910015058</v>
@@ -46636,7 +46372,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.672734206587254</v>
+        <v>1.675088420609178</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.091118463965022</v>
@@ -46725,7 +46461,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.673037322511292</v>
+        <v>1.677598568539671</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.151909570698679</v>
@@ -46814,7 +46550,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.675434238634593</v>
+        <v>1.675143554790122</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.266219652065624</v>
@@ -46903,7 +46639,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.679800384568557</v>
+        <v>1.680695908178386</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.30022521110268</v>
@@ -46992,7 +46728,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.676834657520407</v>
+        <v>1.676041101268037</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.280051248395675</v>
@@ -47081,7 +46817,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.66469696492607</v>
+        <v>1.66159501231125</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.197893111625884</v>
@@ -47170,7 +46906,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.628619127555016</v>
+        <v>1.631726575435911</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.504379779444771</v>
@@ -47259,7 +46995,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.633429036409219</v>
+        <v>1.639356857560508</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.560804732019466</v>
@@ -47348,7 +47084,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.631994148134638</v>
+        <v>1.635713583437003</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.635904758264911</v>
@@ -47437,7 +47173,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.620585892523039</v>
+        <v>1.629588671128587</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.678052691910618</v>
@@ -47526,7 +47262,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.629053797927002</v>
+        <v>1.635025213144894</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.809247781901303</v>
@@ -47615,7 +47351,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.618565179054739</v>
+        <v>1.629021411225497</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.658228746545407</v>
@@ -47704,7 +47440,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.618062798581279</v>
+        <v>1.630506551623494</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.868476326071629</v>
@@ -47793,7 +47529,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.614130166882592</v>
+        <v>1.62705119005226</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.608421188159674</v>
@@ -47882,7 +47618,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.61376053997488</v>
+        <v>1.622209247113014</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.758602194837605</v>
@@ -47971,7 +47707,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.602284269393396</v>
+        <v>1.607466999004473</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.63383490931274</v>
@@ -48060,7 +47796,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.587896883331004</v>
+        <v>1.591485177235213</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.722304611728695</v>
@@ -48149,7 +47885,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.58135694593039</v>
+        <v>1.584084929667988</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.57024223982235</v>
@@ -48238,7 +47974,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.582583384736121</v>
+        <v>1.578535086552572</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.549479510030398</v>
@@ -48327,7 +48063,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.579661259019762</v>
+        <v>1.570440844843928</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.784082903806175</v>
@@ -48416,7 +48152,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.576580601928167</v>
+        <v>1.565958927165577</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.555752353958724</v>
@@ -48505,7 +48241,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.606971975066296</v>
+        <v>1.591505879114159</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.899648542304779</v>
@@ -48594,7 +48330,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.601642140800716</v>
+        <v>1.587455641013924</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.843429249446661</v>
@@ -48683,7 +48419,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.609675141424988</v>
+        <v>1.596691971548107</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.221128632673549</v>
@@ -48772,7 +48508,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.614172776408844</v>
+        <v>1.593468430790202</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.151402690419892</v>
@@ -48861,7 +48597,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.62026931436953</v>
+        <v>1.602274010996521</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.725640084726382</v>
@@ -48950,7 +48686,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.636016387041864</v>
+        <v>1.618367962434667</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.821090915397151</v>
@@ -49039,7 +48775,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.63622304946734</v>
+        <v>1.615018029117245</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.070426150606319</v>
@@ -49128,7 +48864,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.626473413596351</v>
+        <v>1.608382051407109</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.879605725920161</v>
@@ -49217,7 +48953,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.613747892520662</v>
+        <v>1.598186222431358</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.124315575763533</v>
@@ -49306,7 +49042,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.620679767159908</v>
+        <v>1.605236220014851</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.070373532429308</v>
@@ -49395,7 +49131,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.621202583268238</v>
+        <v>1.608169449211453</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.086243761180984</v>
@@ -49484,7 +49220,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.622993169516532</v>
+        <v>1.612885151724699</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.122374846437375</v>
@@ -49573,7 +49309,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.61979363757462</v>
+        <v>1.613327373032871</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.040728139605457</v>
@@ -49662,7 +49398,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.631827047216406</v>
+        <v>1.628079172709486</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.732909461719067</v>
@@ -49751,7 +49487,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.633309139165495</v>
+        <v>1.633223146259665</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.108587892560758</v>
@@ -49840,7 +49576,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.63141869500411</v>
+        <v>1.629500704601315</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.105357308154818</v>
@@ -49929,7 +49665,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.68193451780129</v>
+        <v>1.677665133174837</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.93044491657845</v>
@@ -50018,7 +49754,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.677058634935774</v>
+        <v>1.675280444191794</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.838278505497781</v>
@@ -50107,7 +49843,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.678992279910512</v>
+        <v>1.676840186657969</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.908392636082942</v>
@@ -50196,7 +49932,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.691845125764716</v>
+        <v>1.693260721744132</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.891332223025433</v>
@@ -50285,7 +50021,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.695642473548048</v>
+        <v>1.689978068125145</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.967681925882334</v>
@@ -50374,7 +50110,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.690290228571913</v>
+        <v>1.683634760275854</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.899491719140276</v>
@@ -50463,7 +50199,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.695287677105669</v>
+        <v>1.68971318836998</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.052454683499294</v>
@@ -50552,7 +50288,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.708290493593222</v>
+        <v>1.703245072290742</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.732784135799446</v>
@@ -50641,7 +50377,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.719630243630689</v>
+        <v>1.715419763166717</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.813725927742918</v>
@@ -50730,7 +50466,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.728524145081456</v>
+        <v>1.723890906790555</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.106555600597008</v>
@@ -50819,7 +50555,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.754037833256287</v>
+        <v>1.748100465137854</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.061995596332672</v>
@@ -50908,7 +50644,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.767074840371745</v>
+        <v>1.756590646170888</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.040131319007397</v>
@@ -50997,7 +50733,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.77271946052559</v>
+        <v>1.760572272021202</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.956474204191061</v>
@@ -51086,7 +50822,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.774070443462615</v>
+        <v>1.763458892417456</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.044162245751277</v>
@@ -51175,7 +50911,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.758181940007804</v>
+        <v>1.752038173113763</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.98107713451246</v>
@@ -51264,7 +51000,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.73957680279148</v>
+        <v>1.735062320640497</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.857593905417657</v>
@@ -51353,7 +51089,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.72673905708023</v>
+        <v>1.722832422262672</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.888311789657176</v>
@@ -51639,7 +51375,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.342596623298953</v>
+        <v>1.34870963455795</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.155601333054932</v>
@@ -51728,7 +51464,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.376832554395024</v>
+        <v>1.383064016394256</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.083500361945747</v>
@@ -51817,7 +51553,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.381733310508117</v>
+        <v>1.380446348031719</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.957012468554589</v>
@@ -51906,7 +51642,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.391401428433045</v>
+        <v>1.393324650582348</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.119866763498099</v>
@@ -51995,7 +51731,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.429195515548543</v>
+        <v>1.430529059114166</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.115607719818542</v>
@@ -52084,7 +51820,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.425608026159886</v>
+        <v>1.422035153209292</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.097690266730038</v>
@@ -52173,7 +51909,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.418392248739623</v>
+        <v>1.416825201706206</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.105260814631127</v>
@@ -52262,7 +51998,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.4229631216117</v>
+        <v>1.418242163574876</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.186810698133907</v>
@@ -52351,7 +52087,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.460570735371772</v>
+        <v>1.453805069591249</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.097934178012906</v>
@@ -52440,7 +52176,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.474562111806079</v>
+        <v>1.461923377795121</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.916915646794424</v>
@@ -52529,7 +52265,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.528917614843988</v>
+        <v>1.50489718713291</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.182670497495493</v>
@@ -52618,7 +52354,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.479283367954106</v>
+        <v>1.462673734827594</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.164461148703931</v>
@@ -52707,7 +52443,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.505342701544833</v>
+        <v>1.487897127704571</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.097859123733114</v>
@@ -52796,7 +52532,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.520609800678863</v>
+        <v>1.507222979520356</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.040051351318237</v>
@@ -52885,7 +52621,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.556202283091552</v>
+        <v>1.544114565426196</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.099210894458335</v>
@@ -52974,7 +52710,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.553936226671326</v>
+        <v>1.545608194636581</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.087185953385562</v>
@@ -53063,7 +52799,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.535468075191162</v>
+        <v>1.528586063528236</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.125687135389013</v>
@@ -53152,7 +52888,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.53624940556743</v>
+        <v>1.532406994583834</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.107916876724112</v>
@@ -53241,7 +52977,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.555239865559523</v>
+        <v>1.554359246930622</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.084970110443058</v>
@@ -53330,7 +53066,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.55310255513469</v>
+        <v>1.553978274497368</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.074867232283825</v>
@@ -53419,7 +53155,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.52626610663481</v>
+        <v>1.533937068456021</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.005606517227136</v>
@@ -53508,7 +53244,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.523113162259691</v>
+        <v>1.529212767583665</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.058231724704692</v>
@@ -53597,7 +53333,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.46957139176854</v>
+        <v>1.482229707175794</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.104199435733501</v>
@@ -53686,7 +53422,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.461812465870259</v>
+        <v>1.474925547788138</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.103294104480859</v>
@@ -53775,7 +53511,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.466073619167875</v>
+        <v>1.479435290083968</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.093135276383864</v>
@@ -53864,7 +53600,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.4722487571693</v>
+        <v>1.491284070189053</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.0703315668498</v>
@@ -53953,7 +53689,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.52812714192875</v>
+        <v>1.540105855810957</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.166812487690993</v>
@@ -54042,7 +53778,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.528022796066934</v>
+        <v>1.53855222961249</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.044549987845418</v>
@@ -54131,7 +53867,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.518410612583738</v>
+        <v>1.526602273770716</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.057540637851468</v>
@@ -54220,7 +53956,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.527046260399592</v>
+        <v>1.535965046696315</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.060627392318985</v>
@@ -54309,7 +54045,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.5081521071788</v>
+        <v>1.508247258779988</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.926008667820937</v>
@@ -54398,7 +54134,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.514666898119144</v>
+        <v>1.521382785077958</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.024684749848372</v>
@@ -54487,7 +54223,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.514730808532227</v>
+        <v>1.5200771229824</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.07334442645623</v>
@@ -54576,7 +54312,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.521229998730399</v>
+        <v>1.523536143191155</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.066487633679352</v>
@@ -54665,7 +54401,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.483520127584633</v>
+        <v>1.485256579034068</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.051062342288459</v>
@@ -54754,7 +54490,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.521735007141023</v>
+        <v>1.52056661045018</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.015864793852261</v>
@@ -54843,7 +54579,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.529784739790655</v>
+        <v>1.531102979762121</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.062617886614523</v>
@@ -54932,7 +54668,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.597485671968614</v>
+        <v>1.590243360154155</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.299803759336119</v>
@@ -55021,7 +54757,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.591224512131679</v>
+        <v>1.566748624706639</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.942171935023976</v>
@@ -55110,7 +54846,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.52474119985362</v>
+        <v>1.522725906256855</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.022711240567652</v>
@@ -55199,7 +54935,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.527804124095808</v>
+        <v>1.526632657655441</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.018447900230328</v>
@@ -55288,7 +55024,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.528803096472038</v>
+        <v>1.529257976180155</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.02245433178891</v>
@@ -55377,7 +55113,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.459086655060733</v>
+        <v>1.466534806642567</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.004861211979825</v>
@@ -55466,7 +55202,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.463953027241632</v>
+        <v>1.467846111039468</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.01573535149113</v>
@@ -55555,7 +55291,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.481997583275976</v>
+        <v>1.488766612160575</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.096795209152912</v>
@@ -55644,7 +55380,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.484123700389043</v>
+        <v>1.478509169685468</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.060675103237513</v>
@@ -55733,7 +55469,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.486237019267861</v>
+        <v>1.492939615643796</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.077157853896864</v>
@@ -55822,7 +55558,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.495049091212202</v>
+        <v>1.500941830335186</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.052723197744156</v>
@@ -55911,7 +55647,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.497648837644846</v>
+        <v>1.503426432626379</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.081422498411224</v>
@@ -56000,7 +55736,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.483035532197826</v>
+        <v>1.482419692571907</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.08150700608892</v>
@@ -56089,7 +55825,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.482958493493269</v>
+        <v>1.478280464408085</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.085777749572709</v>
@@ -56178,7 +55914,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.485317008862695</v>
+        <v>1.478420177941244</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.105721390165231</v>
@@ -56267,7 +56003,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.4634806949651</v>
+        <v>1.456359752457192</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.072264769878116</v>
@@ -56356,7 +56092,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.492869768436734</v>
+        <v>1.482741291356396</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.245791375056552</v>
@@ -56445,7 +56181,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.499951755343319</v>
+        <v>1.488238034875277</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.096953432370664</v>
@@ -56534,7 +56270,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.437089120621046</v>
+        <v>1.426889765638802</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.108466452551359</v>
@@ -56623,7 +56359,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.445477543514363</v>
+        <v>1.438877655691056</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.093810836749913</v>
@@ -56712,7 +56448,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.500556625234735</v>
+        <v>1.487272396488102</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.203980480984559</v>
@@ -56801,7 +56537,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.499550114519417</v>
+        <v>1.490091266031884</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.244504897369085</v>
@@ -56890,7 +56626,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.498483133915513</v>
+        <v>1.486338393877461</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.287770767149442</v>
@@ -56979,7 +56715,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.492207187473317</v>
+        <v>1.478366449357532</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.11694863782004</v>
@@ -57068,7 +56804,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.479205952367859</v>
+        <v>1.459686988393908</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.142755609873051</v>
@@ -57157,7 +56893,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.465146877393498</v>
+        <v>1.446993506817826</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.164492648870799</v>
@@ -57246,7 +56982,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.465038425654395</v>
+        <v>1.444358603594331</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.102825132493066</v>
@@ -57335,7 +57071,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.504877159230206</v>
+        <v>1.488876989555862</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.201271561868093</v>
@@ -57424,7 +57160,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.506351244917652</v>
+        <v>1.493505313635829</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.219727481963667</v>
@@ -57513,7 +57249,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.469765998025808</v>
+        <v>1.458920564849063</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.166431896334582</v>
@@ -57602,7 +57338,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.493203060975947</v>
+        <v>1.484599762605045</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.214122500040919</v>
@@ -57691,7 +57427,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.494636255702539</v>
+        <v>1.490096978657189</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.18171798068502</v>
@@ -57780,7 +57516,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.493311624811094</v>
+        <v>1.48785603796419</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.150373329374146</v>
@@ -57869,7 +57605,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.495482471815915</v>
+        <v>1.494676396900744</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.134344930141138</v>
@@ -57958,7 +57694,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.480031355971984</v>
+        <v>1.478402839006059</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.223277388386289</v>
@@ -58047,7 +57783,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.479398820126905</v>
+        <v>1.480693161137737</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.084997068076601</v>
@@ -58136,7 +57872,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.429002748263714</v>
+        <v>1.429547301955188</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.046856488385419</v>
@@ -58225,7 +57961,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.397438700044294</v>
+        <v>1.396885081599445</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.029014854950174</v>
@@ -58314,7 +58050,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.40989973863682</v>
+        <v>1.404229926513355</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.050225582193647</v>
@@ -58403,7 +58139,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.409108525898473</v>
+        <v>1.407032311941117</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.066307064399982</v>
@@ -58492,7 +58228,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.398627131481718</v>
+        <v>1.393908158587188</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.032333252570096</v>
@@ -58581,7 +58317,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.39985813643833</v>
+        <v>1.394138460305927</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.102692643969049</v>
@@ -58670,7 +58406,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.388904122888975</v>
+        <v>1.388034938139791</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.089993874445129</v>
@@ -58759,7 +58495,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.366601152528231</v>
+        <v>1.366513653447712</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.071676872378863</v>
@@ -58848,7 +58584,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.383758702399811</v>
+        <v>1.385164962090681</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.14336299385313</v>
@@ -58937,7 +58673,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.345786370405552</v>
+        <v>1.348638506434306</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.127499931543893</v>
@@ -59026,7 +58762,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.343209291110747</v>
+        <v>1.345759714920995</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.180297811021133</v>
@@ -59115,7 +58851,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.3262406988873</v>
+        <v>1.327788759846956</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.159012230490982</v>
@@ -59204,7 +58940,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.322513999512918</v>
+        <v>1.325592798975796</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.172206719294352</v>
@@ -59293,7 +59029,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.320824705710678</v>
+        <v>1.324051218781946</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.200825340976595</v>
